--- a/config/Nvidia.xlsx
+++ b/config/Nvidia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skaul/Documents/WORK/CODE/GithubRepos/polaris/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skaul/Documents/WORK/CODE/GithubRepos/TT/polaris/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19DAD13-CCDD-FC49-A429-28721560FE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738587C4-2D4C-EC43-AB46-FB065D9815FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7180" yWindow="3440" windowWidth="25940" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10260" yWindow="1940" windowWidth="24540" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GPU" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="438">
   <si>
     <t>BaseArch</t>
   </si>
@@ -267,1114 +267,1093 @@
     <t>CudaCore FP16 MAC/Clk</t>
   </si>
   <si>
+    <t>TensorCore FP64 TFLOPS</t>
+  </si>
+  <si>
+    <t>TensorCore TF32 TFLOPS</t>
+  </si>
+  <si>
+    <t>TensorCore BF16 TFLOPS</t>
+  </si>
+  <si>
+    <t>TensorCore FP16 TFLOPS</t>
+  </si>
+  <si>
+    <t>CudaCore FP16 TFLOPS</t>
+  </si>
+  <si>
+    <t>CudaCore FP32 TFLOPS</t>
+  </si>
+  <si>
+    <t>TensorCore INT8 TOPS</t>
+  </si>
+  <si>
+    <t>TensorCore INT4 TOPS</t>
+  </si>
+  <si>
+    <t>CudaCore FP64 TFLOPS</t>
+  </si>
+  <si>
+    <t>CudaCore FP64 MAC/Clk</t>
+  </si>
+  <si>
+    <t>CudaCore FP64 MAC/Clk/SM</t>
+  </si>
+  <si>
+    <t>H100-PCIe</t>
+  </si>
+  <si>
+    <t>BoostFreq1 (MHz)</t>
+  </si>
+  <si>
+    <t>BoostFreq2 (MHz)</t>
+  </si>
+  <si>
+    <t>TensorCore FP8 MAC/Clk/SM</t>
+  </si>
+  <si>
+    <t>TensorCore FP8 MAC/Clk</t>
+  </si>
+  <si>
+    <t>TensorCore FP8 TFLOPS</t>
+  </si>
+  <si>
+    <t>GPU Area (sq. mm)</t>
+  </si>
+  <si>
+    <t>HBM2</t>
+  </si>
+  <si>
+    <t>HBM3</t>
+  </si>
+  <si>
+    <t>Memory Interface (bits)</t>
+  </si>
+  <si>
+    <t>Memory Freq (MHz)</t>
+  </si>
+  <si>
+    <t>Memory Bandwidth (GB/s)</t>
+  </si>
+  <si>
+    <t>Memory Capacity (GB)</t>
+  </si>
+  <si>
+    <t>L1 Cache Size / SM (KB)</t>
+  </si>
+  <si>
+    <t>L1 Cache Size (MB)</t>
+  </si>
+  <si>
+    <t>RegFile Size / SM (KB)</t>
+  </si>
+  <si>
+    <t>RegFile Size (KB)</t>
+  </si>
+  <si>
+    <t>RegFile Size (MB)</t>
+  </si>
+  <si>
+    <t>Memory Bandwidth (TB/s)</t>
+  </si>
+  <si>
+    <t>Memory Interface (Bytes)</t>
+  </si>
+  <si>
+    <t>Dev Ramp Penalty</t>
+  </si>
+  <si>
+    <t>AD102</t>
+  </si>
+  <si>
+    <t>ADA</t>
+  </si>
+  <si>
+    <t>AD103</t>
+  </si>
+  <si>
+    <t>AD104</t>
+  </si>
+  <si>
+    <t>AD106</t>
+  </si>
+  <si>
+    <t>AD107</t>
+  </si>
+  <si>
+    <t>L40; L40G; L40CNX</t>
+  </si>
+  <si>
+    <t>MODEL</t>
+  </si>
+  <si>
+    <t>ARCHITECTURE</t>
+  </si>
+  <si>
+    <t>SOCKET</t>
+  </si>
+  <si>
+    <t>FP32 CUDA CORES</t>
+  </si>
+  <si>
+    <t>FP64 CORES (not Tensor)</t>
+  </si>
+  <si>
+    <t>MIXED INT32/FP32 CORES</t>
+  </si>
+  <si>
+    <t>INT32 CORES</t>
+  </si>
+  <si>
+    <t>FP32 TFLOPS</t>
+  </si>
+  <si>
+    <t>FP64 TFLOPS</t>
+  </si>
+  <si>
+    <t>A100 40 GB</t>
+  </si>
+  <si>
+    <t>SXM4</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>BOOST CLK MHz</t>
+  </si>
+  <si>
+    <t>A100 80 GB</t>
+  </si>
+  <si>
+    <t>H100</t>
+  </si>
+  <si>
+    <t>SXM5</t>
+  </si>
+  <si>
+    <t>H200</t>
+  </si>
+  <si>
+    <t>B100</t>
+  </si>
+  <si>
+    <t>BLACKWELL</t>
+  </si>
+  <si>
+    <t>SXM6</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>B200</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>GB100</t>
+  </si>
+  <si>
+    <t>MEMORY</t>
+  </si>
+  <si>
+    <t>HBM2e</t>
+  </si>
+  <si>
+    <t>HBM3e</t>
+  </si>
+  <si>
+    <t>MEMORY BUS WIDTH Gb/s</t>
+  </si>
+  <si>
+    <t>MEMORY BW bits</t>
+  </si>
+  <si>
+    <t>MEMORY BW TB/s</t>
+  </si>
+  <si>
+    <t>MEMORY CLK GHz</t>
+  </si>
+  <si>
+    <t>MEMORY CAPACITY</t>
+  </si>
+  <si>
+    <t>INT8 TENSOR TOPS</t>
+  </si>
+  <si>
+    <t>FP64 TENSOR TFLOPS</t>
+  </si>
+  <si>
+    <t>FP16 TENSOR TFLOPS</t>
+  </si>
+  <si>
+    <t>BF16 TFLOPS</t>
+  </si>
+  <si>
+    <t>TF32 TFLOPS</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>PROCESS</t>
+  </si>
+  <si>
+    <t>4N</t>
+  </si>
+  <si>
+    <t>4NP</t>
+  </si>
+  <si>
+    <t>DIE SIZE (sq mm)</t>
+  </si>
+  <si>
+    <t>NVLINK GB/s</t>
+  </si>
+  <si>
+    <t>FP64 TENSOR</t>
+  </si>
+  <si>
+    <t>L1 KB</t>
+  </si>
+  <si>
+    <t>L2 KB</t>
+  </si>
+  <si>
+    <t>Ada</t>
+  </si>
+  <si>
+    <t>GDDR6</t>
+  </si>
+  <si>
+    <t>L40-PCIe</t>
+  </si>
+  <si>
+    <t>L4-PCIe</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>Q1.S1</t>
+  </si>
+  <si>
+    <t>Q1.A1</t>
+  </si>
+  <si>
+    <t>Q2.A1</t>
+  </si>
+  <si>
+    <t>Grendel</t>
+  </si>
+  <si>
+    <t>QSR</t>
+  </si>
+  <si>
+    <t>Tensix Neo Count</t>
+  </si>
+  <si>
+    <t>Tensix Neo/QSR</t>
+  </si>
+  <si>
+    <t>Matrix Core / Tensix Neo</t>
+  </si>
+  <si>
+    <t>Vector Core / Tensix Neo</t>
+  </si>
+  <si>
+    <t>Matrix Core Count</t>
+  </si>
+  <si>
+    <t>Vector Core Count</t>
+  </si>
+  <si>
+    <t>Matrix Core TF32 MAC/Clk</t>
+  </si>
+  <si>
+    <t>Matrix Core BF16 MAC/Clk</t>
+  </si>
+  <si>
+    <t>Matrix Core FP16 MAC/Clk</t>
+  </si>
+  <si>
+    <t>Matrix Core FP8 MAC/Clk</t>
+  </si>
+  <si>
+    <t>Matrix Core INT8 MAC/Clk</t>
+  </si>
+  <si>
+    <t>Matrix Core FP32 MAC/Clk</t>
+  </si>
+  <si>
+    <t>Vector Core FP16 MAC/Clk</t>
+  </si>
+  <si>
+    <t>Vector Core FP32 MAC/Clk</t>
+  </si>
+  <si>
+    <t>Matrix Core FP32 TFLOPS</t>
+  </si>
+  <si>
+    <t>Matrix Core TF32 TFLOPS</t>
+  </si>
+  <si>
+    <t>Matrix Core BF16 TFLOPS</t>
+  </si>
+  <si>
+    <t>Matrix Core FP16 TFLOPS</t>
+  </si>
+  <si>
+    <t>Matrix Core FP8 TFLOPS</t>
+  </si>
+  <si>
+    <t>Matrix Core INT8 TFLOPS</t>
+  </si>
+  <si>
+    <t>Vector Core FP16 TOPS</t>
+  </si>
+  <si>
+    <t>Vector Core FP32 TOPS</t>
+  </si>
+  <si>
+    <t>GDD7</t>
+  </si>
+  <si>
+    <t>GDDR7</t>
+  </si>
+  <si>
+    <t>Mimir Count</t>
+  </si>
+  <si>
+    <t>Memory Capacity (GB) / Mimir</t>
+  </si>
+  <si>
+    <t>Memory Cacpacity (GB)</t>
+  </si>
+  <si>
+    <t>Memory Bandwidth (GB/s) / Mimir</t>
+  </si>
+  <si>
+    <t>BoostFreq (MHz)</t>
+  </si>
+  <si>
+    <t>NOCFreq(MHz)</t>
+  </si>
+  <si>
+    <t>BoostNOCFreq(MHz)</t>
+  </si>
+  <si>
+    <t>SRCA/SRCB FORMAT</t>
+  </si>
+  <si>
+    <t>Quasar</t>
+  </si>
+  <si>
+    <t>MXFP4</t>
+  </si>
+  <si>
+    <t>INT8</t>
+  </si>
+  <si>
+    <t>FP16</t>
+  </si>
+  <si>
+    <t>TF32</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>FPU</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>FP32</t>
+  </si>
+  <si>
+    <t>FP64</t>
+  </si>
+  <si>
+    <t>Vector</t>
+  </si>
+  <si>
+    <t>INT32</t>
+  </si>
+  <si>
+    <t>THROUGHPUT (MAC/Clk)</t>
+  </si>
+  <si>
+    <t>BF16</t>
+  </si>
+  <si>
+    <t>#Cores</t>
+  </si>
+  <si>
+    <t>Freq (GHz)</t>
+  </si>
+  <si>
+    <t>TFLOPS</t>
+  </si>
+  <si>
+    <t>L1 Cache Size / Tensix Neo (MB)</t>
+  </si>
+  <si>
+    <t>Matrix engine</t>
+  </si>
+  <si>
+    <t>rows</t>
+  </si>
+  <si>
+    <t>cols</t>
+  </si>
+  <si>
+    <t>dot product</t>
+  </si>
+  <si>
+    <t>16x16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each Cycle </t>
+  </si>
+  <si>
+    <t>8x16</t>
+  </si>
+  <si>
+    <t>dot products</t>
+  </si>
+  <si>
+    <t>macs/dot product</t>
+  </si>
+  <si>
+    <t>mac/clk</t>
+  </si>
+  <si>
+    <t>2^7</t>
+  </si>
+  <si>
+    <t>2^4</t>
+  </si>
+  <si>
+    <t>2^11</t>
+  </si>
+  <si>
+    <t>Vector Engine</t>
+  </si>
+  <si>
+    <t>1x1</t>
+  </si>
+  <si>
+    <t>4x8</t>
+  </si>
+  <si>
+    <t>2^5</t>
+  </si>
+  <si>
+    <t>2^0</t>
+  </si>
+  <si>
+    <t>MXFP8/MXFP6/MXINT8/FP8</t>
+  </si>
+  <si>
+    <t>Accumulation Formats</t>
+  </si>
+  <si>
+    <t>INT32, FP16, BF16, FP32</t>
+  </si>
+  <si>
+    <t>Keraunos/Mimir bring-up package (WIP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1.A1 </t>
+  </si>
+  <si>
+    <t>ATH1.S1</t>
+  </si>
+  <si>
+    <t>Network Switches</t>
+  </si>
+  <si>
+    <t>2xMimir.1xSO</t>
+  </si>
+  <si>
+    <t>1xQSR.1xATH.4xMimir</t>
+  </si>
+  <si>
+    <t>1xQSR.1xATH.8xMimir.1xSO</t>
+  </si>
+  <si>
+    <t>2xQSR.2xATH.12xMimir.2xSO</t>
+  </si>
+  <si>
+    <t>1xATH</t>
+  </si>
+  <si>
+    <t>some QSR some Keraunos</t>
+  </si>
+  <si>
+    <t>some ATH</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>PCIe</t>
+  </si>
+  <si>
+    <t>Galaxy</t>
+  </si>
+  <si>
+    <t>Dev Kit</t>
+  </si>
+  <si>
+    <t>Lifetime</t>
+  </si>
+  <si>
+    <t>5 years</t>
+  </si>
+  <si>
+    <t>5-7 years</t>
+  </si>
+  <si>
+    <t>7 years</t>
+  </si>
+  <si>
+    <t>Mission profile</t>
+  </si>
+  <si>
+    <t>Get from partners</t>
+  </si>
+  <si>
+    <t>Package Details</t>
+  </si>
+  <si>
+    <t>Substrate size</t>
+  </si>
+  <si>
+    <t>30x30</t>
+  </si>
+  <si>
+    <t>47.5 x 47.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.5x 57.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 x 100 </t>
+  </si>
+  <si>
+    <t>25 x 27.5</t>
+  </si>
+  <si>
+    <t>Substrate layer</t>
+  </si>
+  <si>
+    <t>10 (4-2-4)</t>
+  </si>
+  <si>
+    <t>20 (9-2-9)</t>
+  </si>
+  <si>
+    <t>16 (7-2-7)</t>
+  </si>
+  <si>
+    <t>Core Thickness</t>
+  </si>
+  <si>
+    <t>BGA pitch</t>
+  </si>
+  <si>
+    <t>0.8 mm</t>
+  </si>
+  <si>
+    <t>1.0 mm</t>
+  </si>
+  <si>
+    <t>RDL size</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>30x35</t>
+  </si>
+  <si>
+    <t>42 x 52</t>
+  </si>
+  <si>
+    <t>RDL layers</t>
+  </si>
+  <si>
+    <t>4 layers @ 5/5 um</t>
+  </si>
+  <si>
+    <t>Available D2D Bandwidth to GDDR7 (R+W)</t>
+  </si>
+  <si>
+    <t>16x288 Gbps = 4.5 TBps (raw, split by 2 for R/W)</t>
+  </si>
+  <si>
+    <t>16x768 Gbps = 12 TBps (raw, split by 2 for R/W)</t>
+  </si>
+  <si>
+    <t>GDDR7 Bandwidth</t>
+  </si>
+  <si>
+    <t>16x144 Gbps = 2.3 TBps</t>
+  </si>
+  <si>
+    <t>24x144 Gbps = 3.5 TBps</t>
+  </si>
+  <si>
+    <t>GDDR7 Capacity 2025 (2026)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 x 3GB = 48GB </t>
+  </si>
+  <si>
+    <t>no clamshell</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 x 3GB = 72GB </t>
+  </si>
+  <si>
+    <t>LPDDR5</t>
+  </si>
+  <si>
+    <t>Available D2D Bandwidth to LPDDR5 (R+W)</t>
+  </si>
+  <si>
+    <t>LPDDR5 Bandwidth</t>
+  </si>
+  <si>
+    <t>2x32x8533 Mbps = 68 GBps</t>
+  </si>
+  <si>
+    <t>4x32x8533 Mbps = 136 GBps</t>
+  </si>
+  <si>
+    <t>LPDDR Capacity</t>
+  </si>
+  <si>
+    <t>ScaleOut</t>
+  </si>
+  <si>
+    <t>D2D Bandwidth to Scaleout</t>
+  </si>
+  <si>
+    <t>ScaleOut Bandwidth</t>
+  </si>
+  <si>
+    <t>4 x 800 Gbps</t>
+  </si>
+  <si>
+    <t>10 x 800 Gbps</t>
+  </si>
+  <si>
+    <t>GDDR6X</t>
+  </si>
+  <si>
+    <t>(Non-JEDEC)</t>
+  </si>
+  <si>
+    <t>B/W Per Pin</t>
+  </si>
+  <si>
+    <t>32 Gbps (Gen 1)</t>
+  </si>
+  <si>
+    <t>24 Gbps (Shipping)</t>
+  </si>
+  <si>
+    <t>24 Gbps (Sampling)</t>
+  </si>
+  <si>
+    <t>48 Gbps (Spec Max)</t>
+  </si>
+  <si>
+    <t>Chip Density</t>
+  </si>
+  <si>
+    <t>2 GB (16 Gb)</t>
+  </si>
+  <si>
+    <t>Total B/W (256-bit bus)</t>
+  </si>
+  <si>
+    <t>1024 GB/sec</t>
+  </si>
+  <si>
+    <t>768 GB/sec</t>
+  </si>
+  <si>
+    <t>DRAM Voltage</t>
+  </si>
+  <si>
+    <t>1.2 V</t>
+  </si>
+  <si>
+    <t>1.35 V</t>
+  </si>
+  <si>
+    <t>Data Rate</t>
+  </si>
+  <si>
+    <t>QDR</t>
+  </si>
+  <si>
+    <t>Signaling</t>
+  </si>
+  <si>
+    <t>PAM-3</t>
+  </si>
+  <si>
+    <t>PAM-4</t>
+  </si>
+  <si>
+    <t>NRZ (Binary)</t>
+  </si>
+  <si>
+    <t>Maximum Density</t>
+  </si>
+  <si>
+    <t>64 Gb</t>
+  </si>
+  <si>
+    <t>32 Gb</t>
+  </si>
+  <si>
+    <t>Packaging</t>
+  </si>
+  <si>
+    <t>266 FBGA</t>
+  </si>
+  <si>
+    <t>180 FBGA</t>
+  </si>
+  <si>
+    <t>Bus Width (bits)</t>
+  </si>
+  <si>
+    <t>Bus Width (Bytes)</t>
+  </si>
+  <si>
+    <t>BW / Pin (Gbps) Gen1</t>
+  </si>
+  <si>
+    <t>BW Gbps Gen1</t>
+  </si>
+  <si>
+    <t>BW GBps Gen1</t>
+  </si>
+  <si>
+    <t>BW/Pin (Gbps) Spec Max</t>
+  </si>
+  <si>
+    <t>BW Gbps Spec Max</t>
+  </si>
+  <si>
+    <t>BW GBps Spec Max</t>
+  </si>
+  <si>
+    <t>BW/Pin (Gbps) Grendel Spec</t>
+  </si>
+  <si>
+    <t>BW Gbps Grendel Spec</t>
+  </si>
+  <si>
+    <t>BW GBps Grendel Spec</t>
+  </si>
+  <si>
+    <t>I/O Width (bits)</t>
+  </si>
+  <si>
+    <t># Channels</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Voltage (V)</t>
+  </si>
+  <si>
+    <t>Power Efficiency (pJ/bit)</t>
+  </si>
+  <si>
+    <t>BW/component (GB/s)</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>DDR2</t>
+  </si>
+  <si>
+    <t>DDR2-400-PC2-3200</t>
+  </si>
+  <si>
+    <t>DDR3-800-PC3-6400</t>
+  </si>
+  <si>
+    <t>DDR4</t>
+  </si>
+  <si>
+    <t>DDR4-1600-PC4-12.8K</t>
+  </si>
+  <si>
+    <t>DRAM Packages</t>
+  </si>
+  <si>
+    <t>Pins on both sides of the package</t>
+  </si>
+  <si>
+    <t>Single Inline Module (SIM)</t>
+  </si>
+  <si>
+    <t>Dual Inline Package (DIP)</t>
+  </si>
+  <si>
+    <t>Pins on one side. Can directly be inserted into the slot, can only provide 32b bus width. If you want 64b, then 2 packages need to be connected</t>
+  </si>
+  <si>
+    <t>Dual Inline Module (DIMM)</t>
+  </si>
+  <si>
+    <t>Possible to have 64b on one side only</t>
+  </si>
+  <si>
+    <t>DDR</t>
+  </si>
+  <si>
+    <t>DDR3</t>
+  </si>
+  <si>
+    <t>Pin Count</t>
+  </si>
+  <si>
+    <t>Small Outline DIMM (SO-DIMM)</t>
+  </si>
+  <si>
+    <t>Usage</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Mobile DDR / Low Power DDR</t>
+  </si>
+  <si>
+    <t>LP DDR1</t>
+  </si>
+  <si>
+    <t>LP DDR2</t>
+  </si>
+  <si>
+    <t>LP DDR3</t>
+  </si>
+  <si>
+    <t>LP DDR4</t>
+  </si>
+  <si>
+    <t>LP DDR4X</t>
+  </si>
+  <si>
+    <t>Moble Phone</t>
+  </si>
+  <si>
+    <t>GDDR1</t>
+  </si>
+  <si>
+    <t>GDDR2</t>
+  </si>
+  <si>
+    <t>GDDR3</t>
+  </si>
+  <si>
+    <t>GDDR4</t>
+  </si>
+  <si>
+    <t>Discrete Graphics</t>
+  </si>
+  <si>
+    <t>GDDR5</t>
+  </si>
+  <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>DDR, LPDDR</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>Enterprise, Cloud, AI</t>
+  </si>
+  <si>
+    <t>DDR, HBM</t>
+  </si>
+  <si>
+    <t>Perf, Power, Cost</t>
+  </si>
+  <si>
+    <t>Perf, Power</t>
+  </si>
+  <si>
+    <t>Drivers</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>LPDDR</t>
+  </si>
+  <si>
+    <t>Idle Power, Cost</t>
+  </si>
+  <si>
+    <t>Automotive</t>
+  </si>
+  <si>
+    <t>Perf, Auto Qualification</t>
+  </si>
+  <si>
+    <t>Everything</t>
+  </si>
+  <si>
+    <t>DDR, LPDDR, GDDR, HBM</t>
+  </si>
+  <si>
+    <t>DDR5</t>
+  </si>
+  <si>
+    <t>LPDDR2</t>
+  </si>
+  <si>
+    <t>LPDDR3</t>
+  </si>
+  <si>
+    <t>LPDDR4</t>
+  </si>
+  <si>
+    <t>LPDDR4X</t>
+  </si>
+  <si>
+    <t>TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>IO CLK (MHz)</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>Data bits</t>
+  </si>
+  <si>
+    <t>Transfer (MT/s)</t>
+  </si>
+  <si>
+    <t>BANDWIDTH (GB/s)</t>
+  </si>
+  <si>
+    <t>SDP CAPACITY (GB)</t>
+  </si>
+  <si>
+    <t>GDDR5X</t>
+  </si>
+  <si>
+    <t>GDDR6W</t>
+  </si>
+  <si>
+    <t>DDR5-4800-PC5-38.4K</t>
+  </si>
+  <si>
+    <t>Not Specified in Wikipedia</t>
+  </si>
+  <si>
+    <t>LPDDR1</t>
+  </si>
+  <si>
+    <t>LPDDR1E</t>
+  </si>
+  <si>
+    <t>LPDDR2E</t>
+  </si>
+  <si>
+    <t>LPDDR3E</t>
+  </si>
+  <si>
+    <t>LPDDR5X</t>
+  </si>
+  <si>
+    <t>CudaCore BF16 MAC/Clk/SM</t>
+  </si>
+  <si>
+    <t>CudaCore BF16 MAC/Clk</t>
+  </si>
+  <si>
+    <t>CudaCore BF16 TFLOPS</t>
+  </si>
+  <si>
+    <t>Capacity / Memory Unit (GB)</t>
+  </si>
+  <si>
+    <t>H200-SXM5</t>
+  </si>
+  <si>
+    <t>Memory Units</t>
+  </si>
+  <si>
+    <t>Blackwell</t>
+  </si>
+  <si>
+    <t>B200-SXM6</t>
+  </si>
+  <si>
+    <t>NP4</t>
+  </si>
+  <si>
     <t>CudaCore FP32 MAC/Clk</t>
   </si>
   <si>
-    <t>TensorCore FP64 TFLOPS</t>
-  </si>
-  <si>
-    <t>TensorCore TF32 TFLOPS</t>
-  </si>
-  <si>
-    <t>TensorCore BF16 TFLOPS</t>
-  </si>
-  <si>
-    <t>TensorCore FP16 TFLOPS</t>
-  </si>
-  <si>
-    <t>CudaCore FP16 TFLOPS</t>
-  </si>
-  <si>
-    <t>CudaCore FP32 TFLOPS</t>
-  </si>
-  <si>
-    <t>TensorCore INT8 TOPS</t>
-  </si>
-  <si>
-    <t>TensorCore INT4 TOPS</t>
-  </si>
-  <si>
-    <t>CudaCore FP64 TFLOPS</t>
-  </si>
-  <si>
-    <t>CudaCore FP64 MAC/Clk</t>
-  </si>
-  <si>
-    <t>CudaCore FP64 MAC/Clk/SM</t>
-  </si>
-  <si>
-    <t>H100-PCIe</t>
-  </si>
-  <si>
-    <t>BoostFreq1 (MHz)</t>
-  </si>
-  <si>
-    <t>BoostFreq2 (MHz)</t>
-  </si>
-  <si>
-    <t>TensorCore FP8 MAC/Clk/SM</t>
-  </si>
-  <si>
-    <t>TensorCore FP8 MAC/Clk</t>
-  </si>
-  <si>
-    <t>TensorCore FP8 TFLOPS</t>
-  </si>
-  <si>
-    <t>GPU Area (sq. mm)</t>
-  </si>
-  <si>
-    <t>HBM2</t>
-  </si>
-  <si>
-    <t>HBM3</t>
-  </si>
-  <si>
-    <t>Memory Interface (bits)</t>
-  </si>
-  <si>
-    <t>Memory Freq (MHz)</t>
-  </si>
-  <si>
-    <t>Memory Bandwidth (GB/s)</t>
-  </si>
-  <si>
-    <t>Memory Capacity (GB)</t>
-  </si>
-  <si>
-    <t>L1 Cache Size / SM (KB)</t>
-  </si>
-  <si>
-    <t>L1 Cache Size (MB)</t>
-  </si>
-  <si>
-    <t>RegFile Size / SM (KB)</t>
-  </si>
-  <si>
-    <t>RegFile Size (KB)</t>
-  </si>
-  <si>
-    <t>RegFile Size (MB)</t>
-  </si>
-  <si>
-    <t>Memory Bandwidth (TB/s)</t>
-  </si>
-  <si>
-    <t>Memory Interface (Bytes)</t>
-  </si>
-  <si>
-    <t>Dev Ramp Penalty</t>
-  </si>
-  <si>
-    <t>AD102</t>
-  </si>
-  <si>
-    <t>ADA</t>
-  </si>
-  <si>
-    <t>AD103</t>
-  </si>
-  <si>
-    <t>AD104</t>
-  </si>
-  <si>
-    <t>AD106</t>
-  </si>
-  <si>
-    <t>AD107</t>
-  </si>
-  <si>
-    <t>L40; L40G; L40CNX</t>
-  </si>
-  <si>
-    <t>MODEL</t>
-  </si>
-  <si>
-    <t>ARCHITECTURE</t>
-  </si>
-  <si>
-    <t>SOCKET</t>
-  </si>
-  <si>
-    <t>FP32 CUDA CORES</t>
-  </si>
-  <si>
-    <t>FP64 CORES (not Tensor)</t>
-  </si>
-  <si>
-    <t>MIXED INT32/FP32 CORES</t>
-  </si>
-  <si>
-    <t>INT32 CORES</t>
-  </si>
-  <si>
-    <t>FP32 TFLOPS</t>
-  </si>
-  <si>
-    <t>FP64 TFLOPS</t>
-  </si>
-  <si>
-    <t>A100 40 GB</t>
-  </si>
-  <si>
-    <t>SXM4</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>BOOST CLK MHz</t>
-  </si>
-  <si>
-    <t>A100 80 GB</t>
-  </si>
-  <si>
-    <t>H100</t>
-  </si>
-  <si>
-    <t>SXM5</t>
-  </si>
-  <si>
-    <t>H200</t>
-  </si>
-  <si>
-    <t>B100</t>
-  </si>
-  <si>
-    <t>BLACKWELL</t>
-  </si>
-  <si>
-    <t>SXM6</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>B200</t>
-  </si>
-  <si>
-    <t>GPU</t>
-  </si>
-  <si>
-    <t>GB100</t>
-  </si>
-  <si>
-    <t>MEMORY</t>
-  </si>
-  <si>
-    <t>HBM2e</t>
-  </si>
-  <si>
-    <t>HBM3e</t>
-  </si>
-  <si>
-    <t>MEMORY BUS WIDTH Gb/s</t>
-  </si>
-  <si>
-    <t>MEMORY BW bits</t>
-  </si>
-  <si>
-    <t>MEMORY BW TB/s</t>
-  </si>
-  <si>
-    <t>MEMORY CLK GHz</t>
-  </si>
-  <si>
-    <t>MEMORY CAPACITY</t>
-  </si>
-  <si>
-    <t>INT8 TENSOR TOPS</t>
-  </si>
-  <si>
-    <t>FP64 TENSOR TFLOPS</t>
-  </si>
-  <si>
-    <t>FP16 TENSOR TFLOPS</t>
-  </si>
-  <si>
-    <t>BF16 TFLOPS</t>
-  </si>
-  <si>
-    <t>TF32 TFLOPS</t>
-  </si>
-  <si>
-    <t>YEAR</t>
-  </si>
-  <si>
-    <t>PROCESS</t>
-  </si>
-  <si>
-    <t>4N</t>
-  </si>
-  <si>
-    <t>4NP</t>
-  </si>
-  <si>
-    <t>DIE SIZE (sq mm)</t>
-  </si>
-  <si>
-    <t>NVLINK GB/s</t>
-  </si>
-  <si>
-    <t>FP64 TENSOR</t>
-  </si>
-  <si>
-    <t>L1 KB</t>
-  </si>
-  <si>
-    <t>L2 KB</t>
-  </si>
-  <si>
-    <t>Ada</t>
-  </si>
-  <si>
-    <t>GDDR6</t>
-  </si>
-  <si>
-    <t>L40-PCIe</t>
-  </si>
-  <si>
-    <t>L4-PCIe</t>
-  </si>
-  <si>
-    <t>L4</t>
-  </si>
-  <si>
-    <t>Q1.S1</t>
-  </si>
-  <si>
-    <t>Q1.A1</t>
-  </si>
-  <si>
-    <t>Q2.A1</t>
-  </si>
-  <si>
-    <t>Grendel</t>
-  </si>
-  <si>
-    <t>QSR</t>
-  </si>
-  <si>
-    <t>Tensix Neo Count</t>
-  </si>
-  <si>
-    <t>Tensix Neo/QSR</t>
-  </si>
-  <si>
-    <t>Matrix Core / Tensix Neo</t>
-  </si>
-  <si>
-    <t>Vector Core / Tensix Neo</t>
-  </si>
-  <si>
-    <t>Matrix Core Count</t>
-  </si>
-  <si>
-    <t>Vector Core Count</t>
-  </si>
-  <si>
-    <t>Matrix Core TF32 MAC/Clk</t>
-  </si>
-  <si>
-    <t>Matrix Core BF16 MAC/Clk</t>
-  </si>
-  <si>
-    <t>Matrix Core FP16 MAC/Clk</t>
-  </si>
-  <si>
-    <t>Matrix Core FP8 MAC/Clk</t>
-  </si>
-  <si>
-    <t>Matrix Core INT8 MAC/Clk</t>
-  </si>
-  <si>
-    <t>Matrix Core FP32 MAC/Clk</t>
-  </si>
-  <si>
-    <t>Vector Core FP16 MAC/Clk</t>
-  </si>
-  <si>
-    <t>Vector Core FP32 MAC/Clk</t>
-  </si>
-  <si>
-    <t>Matrix Core FP32 TFLOPS</t>
-  </si>
-  <si>
-    <t>Matrix Core TF32 TFLOPS</t>
-  </si>
-  <si>
-    <t>Matrix Core BF16 TFLOPS</t>
-  </si>
-  <si>
-    <t>Matrix Core FP16 TFLOPS</t>
-  </si>
-  <si>
-    <t>Matrix Core FP8 TFLOPS</t>
-  </si>
-  <si>
-    <t>Matrix Core INT8 TFLOPS</t>
-  </si>
-  <si>
-    <t>Vector Core FP16 TOPS</t>
-  </si>
-  <si>
-    <t>Vector Core FP32 TOPS</t>
-  </si>
-  <si>
-    <t>GDD7</t>
-  </si>
-  <si>
-    <t>GDDR7</t>
-  </si>
-  <si>
-    <t>Mimir Count</t>
-  </si>
-  <si>
-    <t>Memory Capacity (GB) / Mimir</t>
-  </si>
-  <si>
-    <t>Memory Cacpacity (GB)</t>
-  </si>
-  <si>
-    <t>Memory Bandwidth (GB/s) / Mimir</t>
-  </si>
-  <si>
-    <t>BoostFreq (MHz)</t>
-  </si>
-  <si>
-    <t>NOCFreq(MHz)</t>
-  </si>
-  <si>
-    <t>BoostNOCFreq(MHz)</t>
-  </si>
-  <si>
-    <t>SRCA/SRCB FORMAT</t>
-  </si>
-  <si>
-    <t>Quasar</t>
-  </si>
-  <si>
-    <t>MXFP4</t>
-  </si>
-  <si>
-    <t>INT8</t>
-  </si>
-  <si>
-    <t>FP16</t>
-  </si>
-  <si>
-    <t>TF32</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>FPU</t>
-  </si>
-  <si>
-    <t>Matrix</t>
-  </si>
-  <si>
-    <t>FP32</t>
-  </si>
-  <si>
-    <t>FP64</t>
-  </si>
-  <si>
-    <t>Vector</t>
-  </si>
-  <si>
-    <t>INT32</t>
-  </si>
-  <si>
-    <t>THROUGHPUT (MAC/Clk)</t>
-  </si>
-  <si>
-    <t>BF16</t>
-  </si>
-  <si>
-    <t>#Cores</t>
-  </si>
-  <si>
-    <t>Freq (GHz)</t>
-  </si>
-  <si>
-    <t>TFLOPS</t>
-  </si>
-  <si>
-    <t>L1 Cache Size / Tensix Neo (MB)</t>
-  </si>
-  <si>
-    <t>Matrix engine</t>
-  </si>
-  <si>
-    <t>rows</t>
-  </si>
-  <si>
-    <t>cols</t>
-  </si>
-  <si>
-    <t>dot product</t>
-  </si>
-  <si>
-    <t>16x16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Each Cycle </t>
-  </si>
-  <si>
-    <t>8x16</t>
-  </si>
-  <si>
-    <t>dot products</t>
-  </si>
-  <si>
-    <t>macs/dot product</t>
-  </si>
-  <si>
-    <t>mac/clk</t>
-  </si>
-  <si>
-    <t>2^7</t>
-  </si>
-  <si>
-    <t>2^4</t>
-  </si>
-  <si>
-    <t>2^11</t>
-  </si>
-  <si>
-    <t>Vector Engine</t>
-  </si>
-  <si>
-    <t>1x1</t>
-  </si>
-  <si>
-    <t>4x8</t>
-  </si>
-  <si>
-    <t>2^5</t>
-  </si>
-  <si>
-    <t>2^0</t>
-  </si>
-  <si>
-    <t>MXFP8/MXFP6/MXINT8/FP8</t>
-  </si>
-  <si>
-    <t>Accumulation Formats</t>
-  </si>
-  <si>
-    <t>INT32, FP16, BF16, FP32</t>
-  </si>
-  <si>
-    <t>Keraunos/Mimir bring-up package (WIP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1.A1 </t>
-  </si>
-  <si>
-    <t>ATH1.S1</t>
-  </si>
-  <si>
-    <t>Network Switches</t>
-  </si>
-  <si>
-    <t>2xMimir.1xSO</t>
-  </si>
-  <si>
-    <t>1xQSR.1xATH.4xMimir</t>
-  </si>
-  <si>
-    <t>1xQSR.1xATH.8xMimir.1xSO</t>
-  </si>
-  <si>
-    <t>2xQSR.2xATH.12xMimir.2xSO</t>
-  </si>
-  <si>
-    <t>1xATH</t>
-  </si>
-  <si>
-    <t>some QSR some Keraunos</t>
-  </si>
-  <si>
-    <t>some ATH</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>Advanced</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>PCIe</t>
-  </si>
-  <si>
-    <t>Galaxy</t>
-  </si>
-  <si>
-    <t>Dev Kit</t>
-  </si>
-  <si>
-    <t>Lifetime</t>
-  </si>
-  <si>
-    <t>5 years</t>
-  </si>
-  <si>
-    <t>5-7 years</t>
-  </si>
-  <si>
-    <t>7 years</t>
-  </si>
-  <si>
-    <t>Mission profile</t>
-  </si>
-  <si>
-    <t>Get from partners</t>
-  </si>
-  <si>
-    <t>Package Details</t>
-  </si>
-  <si>
-    <t>Substrate size</t>
-  </si>
-  <si>
-    <t>30x30</t>
-  </si>
-  <si>
-    <t>47.5 x 47.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.5x 57.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 x 100 </t>
-  </si>
-  <si>
-    <t>25 x 27.5</t>
-  </si>
-  <si>
-    <t>Substrate layer</t>
-  </si>
-  <si>
-    <t>10 (4-2-4)</t>
-  </si>
-  <si>
-    <t>20 (9-2-9)</t>
-  </si>
-  <si>
-    <t>16 (7-2-7)</t>
-  </si>
-  <si>
-    <t>Core Thickness</t>
-  </si>
-  <si>
-    <t>BGA pitch</t>
-  </si>
-  <si>
-    <t>0.8 mm</t>
-  </si>
-  <si>
-    <t>1.0 mm</t>
-  </si>
-  <si>
-    <t>RDL size</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>30x35</t>
-  </si>
-  <si>
-    <t>42 x 52</t>
-  </si>
-  <si>
-    <t>RDL layers</t>
-  </si>
-  <si>
-    <t>4 layers @ 5/5 um</t>
-  </si>
-  <si>
-    <t>Available D2D Bandwidth to GDDR7 (R+W)</t>
-  </si>
-  <si>
-    <t>16x288 Gbps = 4.5 TBps (raw, split by 2 for R/W)</t>
-  </si>
-  <si>
-    <t>16x768 Gbps = 12 TBps (raw, split by 2 for R/W)</t>
-  </si>
-  <si>
-    <t>GDDR7 Bandwidth</t>
-  </si>
-  <si>
-    <t>16x144 Gbps = 2.3 TBps</t>
-  </si>
-  <si>
-    <t>24x144 Gbps = 3.5 TBps</t>
-  </si>
-  <si>
-    <t>GDDR7 Capacity 2025 (2026)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 x 3GB = 48GB </t>
-  </si>
-  <si>
-    <t>no clamshell</t>
-  </si>
-  <si>
-    <t>or</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 x 3GB = 72GB </t>
-  </si>
-  <si>
-    <t>LPDDR5</t>
-  </si>
-  <si>
-    <t>Available D2D Bandwidth to LPDDR5 (R+W)</t>
-  </si>
-  <si>
-    <t>LPDDR5 Bandwidth</t>
-  </si>
-  <si>
-    <t>2x32x8533 Mbps = 68 GBps</t>
-  </si>
-  <si>
-    <t>4x32x8533 Mbps = 136 GBps</t>
-  </si>
-  <si>
-    <t>LPDDR Capacity</t>
-  </si>
-  <si>
-    <t>ScaleOut</t>
-  </si>
-  <si>
-    <t>D2D Bandwidth to Scaleout</t>
-  </si>
-  <si>
-    <t>ScaleOut Bandwidth</t>
-  </si>
-  <si>
-    <t>4 x 800 Gbps</t>
-  </si>
-  <si>
-    <t>10 x 800 Gbps</t>
-  </si>
-  <si>
-    <t>GDDR6X</t>
-  </si>
-  <si>
-    <t>(Non-JEDEC)</t>
-  </si>
-  <si>
-    <t>B/W Per Pin</t>
-  </si>
-  <si>
-    <t>32 Gbps (Gen 1)</t>
-  </si>
-  <si>
-    <t>24 Gbps (Shipping)</t>
-  </si>
-  <si>
-    <t>24 Gbps (Sampling)</t>
-  </si>
-  <si>
-    <t>48 Gbps (Spec Max)</t>
-  </si>
-  <si>
-    <t>Chip Density</t>
-  </si>
-  <si>
-    <t>2 GB (16 Gb)</t>
-  </si>
-  <si>
-    <t>Total B/W (256-bit bus)</t>
-  </si>
-  <si>
-    <t>1024 GB/sec</t>
-  </si>
-  <si>
-    <t>768 GB/sec</t>
-  </si>
-  <si>
-    <t>DRAM Voltage</t>
-  </si>
-  <si>
-    <t>1.2 V</t>
-  </si>
-  <si>
-    <t>1.35 V</t>
-  </si>
-  <si>
-    <t>Data Rate</t>
-  </si>
-  <si>
-    <t>QDR</t>
-  </si>
-  <si>
-    <t>Signaling</t>
-  </si>
-  <si>
-    <t>PAM-3</t>
-  </si>
-  <si>
-    <t>PAM-4</t>
-  </si>
-  <si>
-    <t>NRZ (Binary)</t>
-  </si>
-  <si>
-    <t>Maximum Density</t>
-  </si>
-  <si>
-    <t>64 Gb</t>
-  </si>
-  <si>
-    <t>32 Gb</t>
-  </si>
-  <si>
-    <t>Packaging</t>
-  </si>
-  <si>
-    <t>266 FBGA</t>
-  </si>
-  <si>
-    <t>180 FBGA</t>
-  </si>
-  <si>
-    <t>Bus Width (bits)</t>
-  </si>
-  <si>
-    <t>Bus Width (Bytes)</t>
-  </si>
-  <si>
-    <t>BW / Pin (Gbps) Gen1</t>
-  </si>
-  <si>
-    <t>BW Gbps Gen1</t>
-  </si>
-  <si>
-    <t>BW GBps Gen1</t>
-  </si>
-  <si>
-    <t>BW/Pin (Gbps) Spec Max</t>
-  </si>
-  <si>
-    <t>BW Gbps Spec Max</t>
-  </si>
-  <si>
-    <t>BW GBps Spec Max</t>
-  </si>
-  <si>
-    <t>BW/Pin (Gbps) Grendel Spec</t>
-  </si>
-  <si>
-    <t>BW Gbps Grendel Spec</t>
-  </si>
-  <si>
-    <t>BW GBps Grendel Spec</t>
-  </si>
-  <si>
-    <t>Total GB/s</t>
-  </si>
-  <si>
-    <t># Memory Stacks</t>
-  </si>
-  <si>
-    <t>bits/memory stack</t>
-  </si>
-  <si>
-    <t>Bytes/memory stack</t>
-  </si>
-  <si>
-    <t>GB/s / mem stack</t>
-  </si>
-  <si>
-    <t>Total GB/s Check</t>
-  </si>
-  <si>
-    <t>size / mem stack</t>
-  </si>
-  <si>
-    <t>I/O Width (bits)</t>
-  </si>
-  <si>
-    <t># Channels</t>
-  </si>
-  <si>
-    <t>Voltage</t>
-  </si>
-  <si>
-    <t>Voltage (V)</t>
-  </si>
-  <si>
-    <t>Power Efficiency (pJ/bit)</t>
-  </si>
-  <si>
-    <t>BW/component (GB/s)</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>DDR2</t>
-  </si>
-  <si>
-    <t>DDR2-400-PC2-3200</t>
-  </si>
-  <si>
-    <t>DDR3-800-PC3-6400</t>
-  </si>
-  <si>
-    <t>DDR4</t>
-  </si>
-  <si>
-    <t>DDR4-1600-PC4-12.8K</t>
-  </si>
-  <si>
-    <t>DRAM Packages</t>
-  </si>
-  <si>
-    <t>Pins on both sides of the package</t>
-  </si>
-  <si>
-    <t>Single Inline Module (SIM)</t>
-  </si>
-  <si>
-    <t>Dual Inline Package (DIP)</t>
-  </si>
-  <si>
-    <t>Pins on one side. Can directly be inserted into the slot, can only provide 32b bus width. If you want 64b, then 2 packages need to be connected</t>
-  </si>
-  <si>
-    <t>Dual Inline Module (DIMM)</t>
-  </si>
-  <si>
-    <t>Possible to have 64b on one side only</t>
-  </si>
-  <si>
-    <t>DDR</t>
-  </si>
-  <si>
-    <t>DDR3</t>
-  </si>
-  <si>
-    <t>Pin Count</t>
-  </si>
-  <si>
-    <t>Small Outline DIMM (SO-DIMM)</t>
-  </si>
-  <si>
-    <t>Usage</t>
-  </si>
-  <si>
-    <t>Laptop</t>
-  </si>
-  <si>
-    <t>Mobile DDR / Low Power DDR</t>
-  </si>
-  <si>
-    <t>LP DDR1</t>
-  </si>
-  <si>
-    <t>LP DDR2</t>
-  </si>
-  <si>
-    <t>LP DDR3</t>
-  </si>
-  <si>
-    <t>LP DDR4</t>
-  </si>
-  <si>
-    <t>LP DDR4X</t>
-  </si>
-  <si>
-    <t>Moble Phone</t>
-  </si>
-  <si>
-    <t>GDDR1</t>
-  </si>
-  <si>
-    <t>GDDR2</t>
-  </si>
-  <si>
-    <t>GDDR3</t>
-  </si>
-  <si>
-    <t>GDDR4</t>
-  </si>
-  <si>
-    <t>Discrete Graphics</t>
-  </si>
-  <si>
-    <t>GDDR5</t>
-  </si>
-  <si>
-    <t>Desktop</t>
-  </si>
-  <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>DDR, LPDDR</t>
-  </si>
-  <si>
-    <t>Market</t>
-  </si>
-  <si>
-    <t>Enterprise, Cloud, AI</t>
-  </si>
-  <si>
-    <t>DDR, HBM</t>
-  </si>
-  <si>
-    <t>Perf, Power, Cost</t>
-  </si>
-  <si>
-    <t>Perf, Power</t>
-  </si>
-  <si>
-    <t>Drivers</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>LPDDR</t>
-  </si>
-  <si>
-    <t>Idle Power, Cost</t>
-  </si>
-  <si>
-    <t>Automotive</t>
-  </si>
-  <si>
-    <t>Perf, Auto Qualification</t>
-  </si>
-  <si>
-    <t>Everything</t>
-  </si>
-  <si>
-    <t>DDR, LPDDR, GDDR, HBM</t>
-  </si>
-  <si>
-    <t>DDR5</t>
-  </si>
-  <si>
-    <t>LPDDR2</t>
-  </si>
-  <si>
-    <t>LPDDR3</t>
-  </si>
-  <si>
-    <t>LPDDR4</t>
-  </si>
-  <si>
-    <t>LPDDR4X</t>
-  </si>
-  <si>
-    <t>TECHNOLOGY</t>
-  </si>
-  <si>
-    <t>IO CLK (MHz)</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>MAX</t>
-  </si>
-  <si>
-    <t>Data bits</t>
-  </si>
-  <si>
-    <t>Transfer (MT/s)</t>
-  </si>
-  <si>
-    <t>BANDWIDTH (GB/s)</t>
-  </si>
-  <si>
-    <t>SDP CAPACITY (GB)</t>
-  </si>
-  <si>
-    <t>GDDR5X</t>
-  </si>
-  <si>
-    <t>GDDR6W</t>
-  </si>
-  <si>
-    <t>DDR5-4800-PC5-38.4K</t>
-  </si>
-  <si>
-    <t>Not Specified in Wikipedia</t>
-  </si>
-  <si>
-    <t>LPDDR1</t>
-  </si>
-  <si>
-    <t>LPDDR1E</t>
-  </si>
-  <si>
-    <t>LPDDR2E</t>
-  </si>
-  <si>
-    <t>LPDDR3E</t>
-  </si>
-  <si>
-    <t>LPDDR5X</t>
-  </si>
-  <si>
-    <t># units</t>
-  </si>
-  <si>
-    <t>data bits</t>
-  </si>
-  <si>
-    <t>data rate</t>
-  </si>
-  <si>
-    <t>freq MHz</t>
-  </si>
-  <si>
-    <t>BW GB/s</t>
-  </si>
-  <si>
-    <t>Total BW GB/s</t>
-  </si>
-  <si>
-    <t>stacks</t>
-  </si>
-  <si>
-    <t>freq MHz * data_rate</t>
-  </si>
-  <si>
-    <t># Memory Units</t>
-  </si>
-  <si>
-    <t>Total Size GB</t>
-  </si>
-  <si>
-    <t>Size/Unit GB</t>
-  </si>
-  <si>
-    <t>CudaCore BF16 MAC/Clk/SM</t>
-  </si>
-  <si>
-    <t>CudaCore BF16 MAC/Clk</t>
-  </si>
-  <si>
-    <t>CudaCore BF16 TFLOPS</t>
-  </si>
-  <si>
-    <t>:w</t>
+    <t>CudaCore INT8 MAC/Clk/SM</t>
+  </si>
+  <si>
+    <t>CudaCore INT32 MAC/Clk/SM</t>
+  </si>
+  <si>
+    <t>CudaCore INT8 MAC/Clk</t>
+  </si>
+  <si>
+    <t>CudaCore INT32 MAC/Clk</t>
+  </si>
+  <si>
+    <t>CudaCore INT8 TOPS</t>
+  </si>
+  <si>
+    <t>CudaCore INT32 TOPS</t>
   </si>
 </sst>
 </file>
@@ -1999,7 +1978,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2048,13 +2027,8 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2414,10 +2388,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15D3A60-1CCD-0841-894A-0200F7F44A77}">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2426,13 +2401,15 @@
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>73</v>
       </c>
@@ -2443,17 +2420,22 @@
         <v>52</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G1" s="23"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2467,13 +2449,19 @@
         <v>58</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2487,13 +2475,19 @@
         <v>2022</v>
       </c>
       <c r="E3" s="4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F3" s="4">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" s="4">
+        <v>2022</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2502,10 +2496,12 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="4">
         <v>826</v>
@@ -2517,13 +2513,17 @@
         <v>814</v>
       </c>
       <c r="E5" s="4">
+        <v>814</v>
+      </c>
+      <c r="F5" s="4">
         <v>609</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>294</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2542,8 +2542,14 @@
       <c r="F6" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -2557,13 +2563,19 @@
         <v>80</v>
       </c>
       <c r="E7" s="4">
+        <v>80</v>
+      </c>
+      <c r="F7" s="4">
         <v>76.3</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>35.799999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -2577,13 +2589,19 @@
         <v>350</v>
       </c>
       <c r="E8" s="4">
+        <v>700</v>
+      </c>
+      <c r="F8" s="4">
         <v>300</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -2597,15 +2615,21 @@
         <v>1125</v>
       </c>
       <c r="E9" s="4">
+        <v>1125</v>
+      </c>
+      <c r="F9" s="4">
         <v>735</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>795</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="4">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" s="4">
         <v>1410</v>
@@ -2617,15 +2641,21 @@
         <v>1620</v>
       </c>
       <c r="E10" s="4">
+        <v>1830</v>
+      </c>
+      <c r="F10" s="4">
         <v>2490</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>2040</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="4">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="4">
         <v>1410</v>
@@ -2637,21 +2667,29 @@
         <v>1755</v>
       </c>
       <c r="E11" s="4">
+        <v>1980</v>
+      </c>
+      <c r="F11" s="4">
         <v>2490</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>2040</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="4">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -2665,13 +2703,19 @@
         <v>8</v>
       </c>
       <c r="E13" s="4">
+        <v>8</v>
+      </c>
+      <c r="F13" s="4">
         <v>12</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -2685,16 +2729,21 @@
         <v>7.125</v>
       </c>
       <c r="E14" s="5">
+        <v>8.25</v>
+      </c>
+      <c r="F14" s="5">
         <f>6*18176/18432</f>
         <v>5.916666666666667</v>
       </c>
-      <c r="F14" s="22">
+      <c r="G14" s="22">
         <f>6*58/60</f>
         <v>5.8</v>
       </c>
-      <c r="G14" s="44"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -2713,8 +2762,14 @@
       <c r="F15" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15" s="4">
+        <v>2</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2733,8 +2788,14 @@
       <c r="F16" s="4">
         <v>128</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G16" s="4">
+        <v>128</v>
+      </c>
+      <c r="H16" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2753,84 +2814,113 @@
       <c r="F17" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="G17" s="4">
+        <v>4</v>
+      </c>
+      <c r="H17" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="45" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="11">
-        <f>B13*B14*B15</f>
+        <f t="shared" ref="B18:G18" si="0">B13*B14*B15</f>
         <v>108</v>
       </c>
       <c r="C18" s="11">
-        <f>C13*C14*C15</f>
+        <f t="shared" si="0"/>
         <v>132</v>
       </c>
       <c r="D18" s="11">
-        <f>D13*D14*D15</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="E18" s="11">
-        <f>E13*E14*E15</f>
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" si="0"/>
         <v>142</v>
       </c>
-      <c r="F18" s="11">
-        <f>F13*F14*F15</f>
+      <c r="G18" s="11">
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="G18" s="45"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="11">
+        <f>H13*H14*H15</f>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="4">
-        <f>B18*B16</f>
+        <f t="shared" ref="B19:G19" si="1">B18*B16</f>
         <v>6912</v>
       </c>
       <c r="C19" s="4">
-        <f>C18*C16</f>
+        <f t="shared" si="1"/>
         <v>16896</v>
       </c>
       <c r="D19" s="4">
-        <f>D18*D16</f>
+        <f t="shared" si="1"/>
         <v>14592</v>
       </c>
       <c r="E19" s="4">
-        <f>E18*E16</f>
+        <f t="shared" si="1"/>
+        <v>16896</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="1"/>
         <v>18176</v>
       </c>
-      <c r="F19" s="4">
-        <f>F18*F16</f>
+      <c r="G19" s="4">
+        <f t="shared" si="1"/>
         <v>7424</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="4">
+        <f>H18*H16</f>
+        <v>24576</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="4">
-        <f>B18*B17</f>
+        <f t="shared" ref="B20:G20" si="2">B18*B17</f>
         <v>432</v>
       </c>
       <c r="C20" s="4">
-        <f>C18*C17</f>
+        <f t="shared" si="2"/>
         <v>528</v>
       </c>
       <c r="D20" s="4">
-        <f>D18*D17</f>
+        <f t="shared" si="2"/>
         <v>456</v>
       </c>
       <c r="E20" s="4">
-        <f>E18*E17</f>
+        <f t="shared" si="2"/>
+        <v>528</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="2"/>
         <v>568</v>
       </c>
-      <c r="F20" s="4">
-        <f>F18*F17</f>
+      <c r="G20" s="4">
+        <f t="shared" si="2"/>
         <v>232</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="4">
+        <f>H18*H17</f>
+        <v>768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>57</v>
       </c>
@@ -2844,21 +2934,29 @@
         <v>16</v>
       </c>
       <c r="E21" s="4">
+        <v>16</v>
+      </c>
+      <c r="F21" s="4">
         <v>2</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>59</v>
       </c>
@@ -2872,13 +2970,19 @@
         <v>2</v>
       </c>
       <c r="E23" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
@@ -2897,8 +3001,14 @@
       <c r="F24" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G24" s="4">
+        <v>16</v>
+      </c>
+      <c r="H24" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>61</v>
       </c>
@@ -2917,8 +3027,14 @@
       <c r="F25" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G25" s="4">
+        <v>32</v>
+      </c>
+      <c r="H25" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>62</v>
       </c>
@@ -2937,10 +3053,16 @@
       <c r="F26" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G26" s="4">
+        <v>32</v>
+      </c>
+      <c r="H26" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
@@ -2955,8 +3077,14 @@
       <c r="F27" s="4">
         <v>64</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G27" s="4">
+        <v>64</v>
+      </c>
+      <c r="H27" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
@@ -2975,8 +3103,14 @@
       <c r="F28" s="4">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G28" s="4">
+        <v>64</v>
+      </c>
+      <c r="H28" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
@@ -2995,18 +3129,26 @@
       <c r="F29" s="4">
         <v>128</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G29" s="4">
+        <v>128</v>
+      </c>
+      <c r="H29" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="B31" s="7">
         <v>4</v>
@@ -3018,13 +3160,19 @@
         <v>2</v>
       </c>
       <c r="E31" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>66</v>
       </c>
@@ -3038,13 +3186,19 @@
         <v>2</v>
       </c>
       <c r="E32" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -3063,10 +3217,16 @@
       <c r="F33" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B34" s="4">
         <v>0.5</v>
@@ -3078,1489 +3238,1772 @@
         <v>0.5</v>
       </c>
       <c r="E34" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B35" s="4">
+        <v>4</v>
+      </c>
+      <c r="C35" s="4">
+        <v>4</v>
+      </c>
+      <c r="D35" s="4">
+        <v>4</v>
+      </c>
+      <c r="E35" s="4">
+        <v>4</v>
+      </c>
+      <c r="F35" s="4">
+        <v>4</v>
+      </c>
+      <c r="G35" s="4">
+        <v>4</v>
+      </c>
+      <c r="H35" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B38" s="4">
         <f>B$20*B$21*B23</f>
         <v>6912</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C38" s="4">
         <f>C$20*C$21*C23</f>
         <v>16896</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D38" s="4">
         <f>D$20*D$21*D23</f>
         <v>14592</v>
       </c>
-      <c r="E36" s="4">
-        <f>E$20*E$21*E23</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="4">
+      <c r="E38" s="4">
+        <f t="shared" ref="E38" si="3">E$20*E$21*E23</f>
+        <v>16896</v>
+      </c>
+      <c r="F38" s="4">
         <f>F$20*F$21*F23</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="G38" s="4">
+        <f>G$20*G$21*G23</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <f>H$20*H$21*H23</f>
+        <v>24576</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B39" s="4">
         <f>B$20*B$21*B24</f>
         <v>55296</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C39" s="4">
         <f>C$20*C$21*C24</f>
         <v>135168</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D39" s="4">
         <f>D$20*D$21*D24</f>
         <v>116736</v>
       </c>
-      <c r="E37" s="4">
-        <f>E$20*E$21*E24</f>
+      <c r="E39" s="4">
+        <f t="shared" ref="E39" si="4">E$20*E$21*E24</f>
+        <v>135168</v>
+      </c>
+      <c r="F39" s="4">
+        <f>F$20*F$21*F24</f>
         <v>18176</v>
       </c>
-      <c r="F37" s="4">
-        <f>F$20*F$21*F24</f>
+      <c r="G39" s="4">
+        <f>G$20*G$21*G24</f>
         <v>29696</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="H39" s="4">
+        <f>H$20*H$21*H24</f>
+        <v>196608</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B40" s="4">
         <f>B$20*B$21*B25</f>
         <v>110592</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C40" s="4">
         <f>C$20*C$21*C25</f>
         <v>270336</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D40" s="4">
         <f>D$20*D$21*D25</f>
         <v>233472</v>
       </c>
-      <c r="E38" s="4">
-        <f>E$20*E$21*E25</f>
+      <c r="E40" s="4">
+        <f t="shared" ref="E40" si="5">E$20*E$21*E25</f>
+        <v>270336</v>
+      </c>
+      <c r="F40" s="4">
+        <f>F$20*F$21*F25</f>
         <v>36352</v>
       </c>
-      <c r="F38" s="4">
-        <f>F$20*F$21*F25</f>
+      <c r="G40" s="4">
+        <f>G$20*G$21*G25</f>
         <v>59392</v>
       </c>
-      <c r="H38" s="21"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="H40" s="4">
+        <f>H$20*H$21*H25</f>
+        <v>393216</v>
+      </c>
+      <c r="I40" s="21"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B41" s="4">
         <f>B$20*B$21*B26</f>
         <v>110592</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C41" s="4">
         <f>C$20*C$21*C26</f>
         <v>270336</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D41" s="4">
         <f>D$20*D$21*D26</f>
         <v>233472</v>
       </c>
-      <c r="E39" s="4">
-        <f>E$20*E$21*E26</f>
+      <c r="E41" s="4">
+        <f t="shared" ref="E41" si="6">E$20*E$21*E26</f>
+        <v>270336</v>
+      </c>
+      <c r="F41" s="4">
+        <f>F$20*F$21*F26</f>
         <v>36352</v>
       </c>
-      <c r="F39" s="4">
-        <f>F$20*F$21*F26</f>
+      <c r="G41" s="4">
+        <f>G$20*G$21*G26</f>
         <v>59392</v>
       </c>
-      <c r="H39" s="21"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B40" s="4">
+      <c r="H41" s="4">
+        <f>H$20*H$21*H26</f>
+        <v>393216</v>
+      </c>
+      <c r="I41" s="21"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="4">
         <f>B$20*B$21*B27</f>
         <v>0</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C42" s="4">
         <f>C$20*C$21*C27</f>
         <v>540672</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D42" s="4">
         <f>D$20*D$21*D27</f>
         <v>466944</v>
       </c>
-      <c r="E40" s="4">
-        <f>E$20*E$21*E27</f>
+      <c r="E42" s="4">
+        <f t="shared" ref="E42" si="7">E$20*E$21*E27</f>
+        <v>540672</v>
+      </c>
+      <c r="F42" s="4">
+        <f>F$20*F$21*F27</f>
         <v>72704</v>
       </c>
-      <c r="F40" s="4">
-        <f>F$20*F$21*F27</f>
+      <c r="G42" s="4">
+        <f>G$20*G$21*G27</f>
         <v>118784</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="H42" s="4">
+        <f>H$20*H$21*H27</f>
+        <v>786432</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B43" s="4">
         <f>B$20*B$21*B28</f>
         <v>221184</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C43" s="4">
         <f>C$20*C$21*C28</f>
         <v>540672</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D43" s="4">
         <f>D$20*D$21*D28</f>
         <v>466944</v>
       </c>
-      <c r="E41" s="4">
-        <f>E$20*E$21*E28</f>
+      <c r="E43" s="4">
+        <f t="shared" ref="E43" si="8">E$20*E$21*E28</f>
+        <v>540672</v>
+      </c>
+      <c r="F43" s="4">
+        <f>F$20*F$21*F28</f>
         <v>72704</v>
       </c>
-      <c r="F41" s="4">
-        <f>F$20*F$21*F28</f>
+      <c r="G43" s="4">
+        <f>G$20*G$21*G28</f>
         <v>118784</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="H43" s="4">
+        <f>H$20*H$21*H28</f>
+        <v>786432</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B44" s="4">
         <f>B$20*B$21*B29</f>
         <v>442368</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C44" s="4">
         <f>C$20*C$21*C29</f>
         <v>1081344</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D44" s="4">
         <f>D$20*D$21*D29</f>
         <v>933888</v>
       </c>
-      <c r="E42" s="4">
-        <f>E$20*E$21*E29</f>
+      <c r="E44" s="4">
+        <f t="shared" ref="E44" si="9">E$20*E$21*E29</f>
+        <v>1081344</v>
+      </c>
+      <c r="F44" s="4">
+        <f>F$20*F$21*F29</f>
         <v>145408</v>
       </c>
-      <c r="F42" s="4">
-        <f>F$20*F$21*F29</f>
+      <c r="G44" s="4">
+        <f>G$20*G$21*G29</f>
         <v>237568</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B44" s="4">
+      <c r="H44" s="4">
+        <f>H$20*H$21*H29</f>
+        <v>1572864</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B46" s="4">
         <f>B$19*B31</f>
         <v>27648</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C46" s="4">
         <f>C$19*C31</f>
         <v>33792</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D46" s="4">
         <f>D$19*D31</f>
         <v>29184</v>
       </c>
-      <c r="E44" s="4">
-        <f>E$19*E31</f>
-        <v>0</v>
-      </c>
-      <c r="F44" s="4">
+      <c r="E46" s="4">
+        <f t="shared" ref="E46" si="10">E$19*E31</f>
+        <v>33792</v>
+      </c>
+      <c r="F46" s="4">
         <f>F$19*F31</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="G46" s="4">
+        <f>G$19*G31</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="4">
+        <f>H$19*H31</f>
+        <v>49152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B47" s="4">
         <f>B$19*B32</f>
         <v>27648</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C47" s="4">
         <f>C$19*C32</f>
         <v>33792</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D47" s="4">
         <f>D$19*D32</f>
         <v>29184</v>
       </c>
-      <c r="E45" s="4">
-        <f>E$19*E32</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="4">
+      <c r="E47" s="4">
+        <f t="shared" ref="E47" si="11">E$19*E32</f>
+        <v>33792</v>
+      </c>
+      <c r="F47" s="4">
         <f>F$19*F32</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46" s="4">
+      <c r="G47" s="4">
+        <f>G$19*G32</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="4">
+        <f>H$19*H32</f>
+        <v>49152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B48" s="4">
         <f>B$19*B33</f>
         <v>6912</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C48" s="4">
         <f>C$19*C33</f>
         <v>16896</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D48" s="4">
         <f>D$19*D33</f>
         <v>14592</v>
       </c>
-      <c r="E46" s="4">
-        <f>E$19*E33</f>
+      <c r="E48" s="4">
+        <f t="shared" ref="E48" si="12">E$19*E33</f>
+        <v>16896</v>
+      </c>
+      <c r="F48" s="4">
+        <f>F$19*F33</f>
         <v>18176</v>
       </c>
-      <c r="F46" s="4">
-        <f>F$19*F33</f>
+      <c r="G48" s="4">
+        <f>G$19*G33</f>
         <v>7424</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" s="4">
+      <c r="H48" s="4">
+        <f>H$19*H33</f>
+        <v>24576</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="4">
         <f>B$19*B34</f>
         <v>3456</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C49" s="4">
         <f>C$19*C34</f>
         <v>8448</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D49" s="4">
         <f>D$19*D34</f>
         <v>7296</v>
       </c>
-      <c r="E47" s="4">
-        <f>E$19*E34</f>
+      <c r="E49" s="4">
+        <f t="shared" ref="E49:H50" si="13">E$19*E34</f>
+        <v>8448</v>
+      </c>
+      <c r="F49" s="4">
+        <f>F$19*F34</f>
+        <v>9088</v>
+      </c>
+      <c r="G49" s="4">
+        <f>G$19*G34</f>
+        <v>3712</v>
+      </c>
+      <c r="H49" s="4">
+        <f>H$19*H34</f>
+        <v>12288</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B50" s="4">
+        <f t="shared" ref="B50:H50" si="14">B$19*B35</f>
+        <v>27648</v>
+      </c>
+      <c r="C50" s="4">
+        <f t="shared" si="14"/>
+        <v>67584</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" si="14"/>
+        <v>58368</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" si="13"/>
+        <v>67584</v>
+      </c>
+      <c r="F50" s="4">
+        <f t="shared" si="13"/>
+        <v>72704</v>
+      </c>
+      <c r="G50" s="4">
+        <f t="shared" si="13"/>
+        <v>29696</v>
+      </c>
+      <c r="H50" s="4">
+        <f t="shared" si="13"/>
+        <v>98304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B51" s="4">
+        <f t="shared" ref="B51:H51" si="15">B$19*B36</f>
+        <v>6912</v>
+      </c>
+      <c r="C51" s="4">
+        <f t="shared" si="15"/>
+        <v>16896</v>
+      </c>
+      <c r="D51" s="4">
+        <f t="shared" si="15"/>
+        <v>14592</v>
+      </c>
+      <c r="E51" s="4">
+        <f t="shared" si="15"/>
+        <v>16896</v>
+      </c>
+      <c r="F51" s="4">
+        <f t="shared" si="15"/>
+        <v>18176</v>
+      </c>
+      <c r="G51" s="4">
+        <f t="shared" si="15"/>
+        <v>7424</v>
+      </c>
+      <c r="H51" s="4">
+        <f t="shared" si="15"/>
+        <v>24576</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="13">
+        <f t="shared" ref="B53:G53" si="16">B38*2*B$11/1000000</f>
+        <v>19.49184</v>
+      </c>
+      <c r="C53" s="13">
+        <f t="shared" si="16"/>
+        <v>66.908159999999995</v>
+      </c>
+      <c r="D53" s="13">
+        <f t="shared" si="16"/>
+        <v>51.217919999999999</v>
+      </c>
+      <c r="E53" s="13">
+        <f t="shared" si="16"/>
+        <v>66.908159999999995</v>
+      </c>
+      <c r="F53" s="13">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F47" s="4">
-        <f>F$19*F34</f>
+      <c r="G53" s="13">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="H53" s="13">
+        <f>H38*2*H$11/1000000</f>
+        <v>109.36320000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="13">
-        <f>B36*2*B$11/1000000</f>
-        <v>19.49184</v>
-      </c>
-      <c r="C49" s="13">
-        <f>C36*2*C$11/1000000</f>
-        <v>66.908159999999995</v>
-      </c>
-      <c r="D49" s="13">
-        <f>D36*2*D$11/1000000</f>
-        <v>51.217919999999999</v>
-      </c>
-      <c r="E49" s="13">
-        <f>E36*2*E$11/1000000</f>
+      <c r="B54" s="14">
+        <f>B39*2*B$10/1000000</f>
+        <v>155.93472</v>
+      </c>
+      <c r="C54" s="14">
+        <f>C39*2*C$10/1000000</f>
+        <v>494.71487999999999</v>
+      </c>
+      <c r="D54" s="14">
+        <f>D39*2*D$10/1000000</f>
+        <v>378.22464000000002</v>
+      </c>
+      <c r="E54" s="14">
+        <f t="shared" ref="E54" si="17">E39*2*E$10/1000000</f>
+        <v>494.71487999999999</v>
+      </c>
+      <c r="F54" s="13">
+        <f>F39*2*F$10/1000000</f>
+        <v>90.516480000000001</v>
+      </c>
+      <c r="G54" s="13">
+        <f>G39*2*G$10/1000000</f>
+        <v>121.15967999999999</v>
+      </c>
+      <c r="H54" s="14">
+        <f>H39*2*H$10/1000000</f>
+        <v>874.90560000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" s="14">
+        <f>B40*2*B$10/1000000</f>
+        <v>311.86944</v>
+      </c>
+      <c r="C55" s="14">
+        <f>C40*2*C$10/1000000</f>
+        <v>989.42975999999999</v>
+      </c>
+      <c r="D55" s="14">
+        <f>D40*2*D$10/1000000</f>
+        <v>756.44928000000004</v>
+      </c>
+      <c r="E55" s="14">
+        <f t="shared" ref="E55" si="18">E40*2*E$10/1000000</f>
+        <v>989.42975999999999</v>
+      </c>
+      <c r="F55" s="13">
+        <f>F40*2*F$10/1000000</f>
+        <v>181.03296</v>
+      </c>
+      <c r="G55" s="13">
+        <f>G40*2*G$10/1000000</f>
+        <v>242.31935999999999</v>
+      </c>
+      <c r="H55" s="14">
+        <f>H40*2*H$10/1000000</f>
+        <v>1749.8112000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="14">
+        <f>B41*2*B$10/1000000</f>
+        <v>311.86944</v>
+      </c>
+      <c r="C56" s="14">
+        <f>C41*2*C$10/1000000</f>
+        <v>989.42975999999999</v>
+      </c>
+      <c r="D56" s="14">
+        <f>D41*2*D$10/1000000</f>
+        <v>756.44928000000004</v>
+      </c>
+      <c r="E56" s="14">
+        <f t="shared" ref="E56" si="19">E41*2*E$10/1000000</f>
+        <v>989.42975999999999</v>
+      </c>
+      <c r="F56" s="13">
+        <f>F41*2*F$10/1000000</f>
+        <v>181.03296</v>
+      </c>
+      <c r="G56" s="13">
+        <f>G41*2*G$10/1000000</f>
+        <v>242.31935999999999</v>
+      </c>
+      <c r="H56" s="14">
+        <f>H41*2*H$10/1000000</f>
+        <v>1749.8112000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" s="14">
+        <f>B42*2*B$10/1000000</f>
         <v>0</v>
       </c>
-      <c r="F49" s="13">
-        <f>F36*2*F$11/1000000</f>
+      <c r="C57" s="14">
+        <f>C42*2*C$10/1000000</f>
+        <v>1978.85952</v>
+      </c>
+      <c r="D57" s="14">
+        <f>D42*2*D$10/1000000</f>
+        <v>1512.8985600000001</v>
+      </c>
+      <c r="E57" s="14">
+        <f t="shared" ref="E57" si="20">E42*2*E$10/1000000</f>
+        <v>1978.85952</v>
+      </c>
+      <c r="F57" s="13">
+        <f>F42*2*F$10/1000000</f>
+        <v>362.06592000000001</v>
+      </c>
+      <c r="G57" s="13">
+        <f>G42*2*G$10/1000000</f>
+        <v>484.63871999999998</v>
+      </c>
+      <c r="H57" s="14">
+        <f>H42*2*H$10/1000000</f>
+        <v>3499.6224000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" s="14">
+        <f>B43*2*B$10/1000000</f>
+        <v>623.73887999999999</v>
+      </c>
+      <c r="C58" s="14">
+        <f>C43*2*C$10/1000000</f>
+        <v>1978.85952</v>
+      </c>
+      <c r="D58" s="14">
+        <f>D43*2*D$10/1000000</f>
+        <v>1512.8985600000001</v>
+      </c>
+      <c r="E58" s="14">
+        <f t="shared" ref="E58" si="21">E43*2*E$10/1000000</f>
+        <v>1978.85952</v>
+      </c>
+      <c r="F58" s="13">
+        <f>F43*2*F$10/1000000</f>
+        <v>362.06592000000001</v>
+      </c>
+      <c r="G58" s="13">
+        <f>G43*2*G$10/1000000</f>
+        <v>484.63871999999998</v>
+      </c>
+      <c r="H58" s="14">
+        <f>H43*2*H$10/1000000</f>
+        <v>3499.6224000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="14">
+        <f>B44*2*B$10/1000000</f>
+        <v>1247.47776</v>
+      </c>
+      <c r="C59" s="14">
+        <f>C44*2*C$10/1000000</f>
+        <v>3957.7190399999999</v>
+      </c>
+      <c r="D59" s="14">
+        <f>D44*2*D$10/1000000</f>
+        <v>3025.7971200000002</v>
+      </c>
+      <c r="E59" s="14">
+        <f t="shared" ref="E59" si="22">E44*2*E$10/1000000</f>
+        <v>3957.7190399999999</v>
+      </c>
+      <c r="F59" s="13">
+        <f>F44*2*F$10/1000000</f>
+        <v>724.13184000000001</v>
+      </c>
+      <c r="G59" s="13">
+        <f>G44*2*G$10/1000000</f>
+        <v>969.27743999999996</v>
+      </c>
+      <c r="H59" s="14">
+        <f>H44*2*H$10/1000000</f>
+        <v>6999.2448000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="B61" s="13">
+        <f>B46*2*B$11/1000000</f>
+        <v>77.967359999999999</v>
+      </c>
+      <c r="C61" s="13">
+        <f>C46*2*C$11/1000000</f>
+        <v>133.81631999999999</v>
+      </c>
+      <c r="D61" s="13">
+        <f>D46*2*D$11/1000000</f>
+        <v>102.43584</v>
+      </c>
+      <c r="E61" s="13">
+        <f t="shared" ref="E61" si="23">E46*2*E$11/1000000</f>
+        <v>133.81631999999999</v>
+      </c>
+      <c r="F61" s="13">
+        <f>F46*2*F$11/1000000</f>
         <v>0</v>
       </c>
-      <c r="G49" s="46"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" s="14">
-        <f>B37*2*B$10/1000000</f>
-        <v>155.93472</v>
-      </c>
-      <c r="C50" s="14">
-        <f>C37*2*C$10/1000000</f>
-        <v>494.71487999999999</v>
-      </c>
-      <c r="D50" s="14">
-        <f>D37*2*D$10/1000000</f>
-        <v>378.22464000000002</v>
-      </c>
-      <c r="E50" s="13">
-        <f>E37*2*E$10/1000000</f>
-        <v>90.516480000000001</v>
-      </c>
-      <c r="F50" s="13">
-        <f>F37*2*F$10/1000000</f>
-        <v>121.15967999999999</v>
-      </c>
-      <c r="G50" s="47"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" s="14">
-        <f>B38*2*B$10/1000000</f>
-        <v>311.86944</v>
-      </c>
-      <c r="C51" s="14">
-        <f>C38*2*C$10/1000000</f>
-        <v>989.42975999999999</v>
-      </c>
-      <c r="D51" s="14">
-        <f>D38*2*D$10/1000000</f>
-        <v>756.44928000000004</v>
-      </c>
-      <c r="E51" s="13">
-        <f>E38*2*E$10/1000000</f>
-        <v>181.03296</v>
-      </c>
-      <c r="F51" s="13">
-        <f>F38*2*F$10/1000000</f>
-        <v>242.31935999999999</v>
-      </c>
-      <c r="G51" s="47"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="G61" s="13">
+        <f>G46*2*G$11/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="13">
+        <f>H46*2*H$11/1000000</f>
+        <v>218.72640000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="B52" s="14">
-        <f>B39*2*B$10/1000000</f>
-        <v>311.86944</v>
-      </c>
-      <c r="C52" s="14">
-        <f>C39*2*C$10/1000000</f>
-        <v>989.42975999999999</v>
-      </c>
-      <c r="D52" s="14">
-        <f>D39*2*D$10/1000000</f>
-        <v>756.44928000000004</v>
-      </c>
-      <c r="E52" s="13">
-        <f>E39*2*E$10/1000000</f>
-        <v>181.03296</v>
-      </c>
-      <c r="F52" s="13">
-        <f>F39*2*F$10/1000000</f>
-        <v>242.31935999999999</v>
-      </c>
-      <c r="G52" s="47"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53" s="14">
-        <f>B40*2*B$10/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="C53" s="14">
-        <f>C40*2*C$10/1000000</f>
-        <v>1978.85952</v>
-      </c>
-      <c r="D53" s="14">
-        <f>D40*2*D$10/1000000</f>
-        <v>1512.8985600000001</v>
-      </c>
-      <c r="E53" s="13">
-        <f>E40*2*E$10/1000000</f>
-        <v>362.06592000000001</v>
-      </c>
-      <c r="F53" s="13">
-        <f>F40*2*F$10/1000000</f>
-        <v>484.63871999999998</v>
-      </c>
-      <c r="G53" s="47"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B54" s="14">
-        <f>B41*2*B$10/1000000</f>
-        <v>623.73887999999999</v>
-      </c>
-      <c r="C54" s="14">
-        <f>C41*2*C$10/1000000</f>
-        <v>1978.85952</v>
-      </c>
-      <c r="D54" s="14">
-        <f>D41*2*D$10/1000000</f>
-        <v>1512.8985600000001</v>
-      </c>
-      <c r="E54" s="13">
-        <f>E41*2*E$10/1000000</f>
-        <v>362.06592000000001</v>
-      </c>
-      <c r="F54" s="13">
-        <f>F41*2*F$10/1000000</f>
-        <v>484.63871999999998</v>
-      </c>
-      <c r="G54" s="47"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B55" s="14">
-        <f>B42*2*B$10/1000000</f>
-        <v>1247.47776</v>
-      </c>
-      <c r="C55" s="14">
-        <f>C42*2*C$10/1000000</f>
-        <v>3957.7190399999999</v>
-      </c>
-      <c r="D55" s="14">
-        <f>D42*2*D$10/1000000</f>
-        <v>3025.7971200000002</v>
-      </c>
-      <c r="E55" s="13">
-        <f>E42*2*E$10/1000000</f>
-        <v>724.13184000000001</v>
-      </c>
-      <c r="F55" s="13">
-        <f>F42*2*F$10/1000000</f>
-        <v>969.27743999999996</v>
-      </c>
-      <c r="G55" s="47"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="47"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B57" s="13">
-        <f>B44*2*B$11/1000000</f>
+      <c r="B62" s="13">
+        <f>B47*2*B$11/1000000</f>
         <v>77.967359999999999</v>
       </c>
-      <c r="C57" s="13">
-        <f>C44*2*C$11/1000000</f>
+      <c r="C62" s="13">
+        <f>C47*2*C$11/1000000</f>
         <v>133.81631999999999</v>
       </c>
-      <c r="D57" s="13">
-        <f>D44*2*D$11/1000000</f>
+      <c r="D62" s="13">
+        <f>D47*2*D$11/1000000</f>
         <v>102.43584</v>
       </c>
-      <c r="E57" s="13">
-        <f>E44*2*E$11/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="F57" s="13">
-        <f>F44*2*F$11/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="26"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B58" s="13">
-        <f>B45*2*B$11/1000000</f>
-        <v>77.967359999999999</v>
-      </c>
-      <c r="C58" s="13">
-        <f>C45*2*C$11/1000000</f>
+      <c r="E62" s="13">
+        <f t="shared" ref="E62" si="24">E47*2*E$11/1000000</f>
         <v>133.81631999999999</v>
       </c>
-      <c r="D58" s="13">
-        <f>D45*2*D$11/1000000</f>
-        <v>102.43584</v>
-      </c>
-      <c r="E58" s="13">
-        <f>E45*2*E$11/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="F58" s="13">
-        <f>F45*2*F$11/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="G58" s="46"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B59" s="13">
-        <f>B46*2*B$11/1000000</f>
-        <v>19.49184</v>
-      </c>
-      <c r="C59" s="13">
-        <f>C46*2*C$11/1000000</f>
-        <v>66.908159999999995</v>
-      </c>
-      <c r="D59" s="13">
-        <f>D46*2*D$11/1000000</f>
-        <v>51.217919999999999</v>
-      </c>
-      <c r="E59" s="13">
-        <f>E46*2*E$11/1000000</f>
-        <v>90.516480000000001</v>
-      </c>
-      <c r="F59" s="13">
-        <f>F46*2*F$11/1000000</f>
-        <v>30.289919999999999</v>
-      </c>
-      <c r="G59" s="46"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B60" s="13">
-        <f>B47*2*B$11/1000000</f>
-        <v>9.7459199999999999</v>
-      </c>
-      <c r="C60" s="13">
-        <f>C47*2*C$11/1000000</f>
-        <v>33.454079999999998</v>
-      </c>
-      <c r="D60" s="13">
-        <f>D47*2*D$11/1000000</f>
-        <v>25.60896</v>
-      </c>
-      <c r="E60" s="13">
-        <f>E47*2*E$11/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="F60" s="13">
+      <c r="F62" s="13">
         <f>F47*2*F$11/1000000</f>
         <v>0</v>
       </c>
-      <c r="G60" s="46"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B62" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C62" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D62" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E62" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F62" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B63" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C63" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D63" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E63" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F63" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64" s="4">
-        <v>7</v>
-      </c>
-      <c r="C64" s="4">
-        <v>7</v>
-      </c>
-      <c r="D64" s="4">
-        <v>7</v>
-      </c>
-      <c r="E64" s="4">
-        <v>7</v>
-      </c>
-      <c r="F64" s="4">
-        <v>7</v>
+      <c r="G62" s="13">
+        <f>G47*2*G$11/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="13">
+        <f>H47*2*H$11/1000000</f>
+        <v>218.72640000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="13">
+        <f>B48*2*B$11/1000000</f>
+        <v>19.49184</v>
+      </c>
+      <c r="C63" s="13">
+        <f>C48*2*C$11/1000000</f>
+        <v>66.908159999999995</v>
+      </c>
+      <c r="D63" s="13">
+        <f>D48*2*D$11/1000000</f>
+        <v>51.217919999999999</v>
+      </c>
+      <c r="E63" s="13">
+        <f t="shared" ref="E63" si="25">E48*2*E$11/1000000</f>
+        <v>66.908159999999995</v>
+      </c>
+      <c r="F63" s="13">
+        <f>F48*2*F$11/1000000</f>
+        <v>90.516480000000001</v>
+      </c>
+      <c r="G63" s="13">
+        <f>G48*2*G$11/1000000</f>
+        <v>30.289919999999999</v>
+      </c>
+      <c r="H63" s="13">
+        <f>H48*2*H$11/1000000</f>
+        <v>109.36320000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" s="13">
+        <f>B49*2*B$11/1000000</f>
+        <v>9.7459199999999999</v>
+      </c>
+      <c r="C64" s="13">
+        <f>C49*2*C$11/1000000</f>
+        <v>33.454079999999998</v>
+      </c>
+      <c r="D64" s="13">
+        <f>D49*2*D$11/1000000</f>
+        <v>25.60896</v>
+      </c>
+      <c r="E64" s="13">
+        <f t="shared" ref="E64:H65" si="26">E49*2*E$11/1000000</f>
+        <v>33.454079999999998</v>
+      </c>
+      <c r="F64" s="13">
+        <f>F49*2*F$11/1000000</f>
+        <v>45.258240000000001</v>
+      </c>
+      <c r="G64" s="13">
+        <f>G49*2*G$11/1000000</f>
+        <v>15.144959999999999</v>
+      </c>
+      <c r="H64" s="13">
+        <f>H49*2*H$11/1000000</f>
+        <v>54.681600000000003</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
+        <v>436</v>
+      </c>
+      <c r="B65" s="13">
+        <f t="shared" ref="B65:H65" si="27">B50*2*B$11/1000000</f>
+        <v>77.967359999999999</v>
+      </c>
+      <c r="C65" s="13">
+        <f t="shared" si="27"/>
+        <v>267.63263999999998</v>
+      </c>
+      <c r="D65" s="13">
+        <f t="shared" si="27"/>
+        <v>204.87168</v>
+      </c>
+      <c r="E65" s="13">
+        <f t="shared" si="26"/>
+        <v>267.63263999999998</v>
+      </c>
+      <c r="F65" s="13">
+        <f t="shared" si="26"/>
+        <v>362.06592000000001</v>
+      </c>
+      <c r="G65" s="13">
+        <f t="shared" si="26"/>
+        <v>121.15967999999999</v>
+      </c>
+      <c r="H65" s="13">
+        <f t="shared" si="26"/>
+        <v>437.45280000000002</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>162</v>
+        <v>437</v>
+      </c>
+      <c r="B66" s="13">
+        <f t="shared" ref="B66:H66" si="28">B51*2*B$11/1000000</f>
+        <v>19.49184</v>
+      </c>
+      <c r="C66" s="13">
+        <f t="shared" si="28"/>
+        <v>66.908159999999995</v>
+      </c>
+      <c r="D66" s="13">
+        <f t="shared" si="28"/>
+        <v>51.217919999999999</v>
+      </c>
+      <c r="E66" s="13">
+        <f t="shared" si="28"/>
+        <v>66.908159999999995</v>
+      </c>
+      <c r="F66" s="13">
+        <f t="shared" si="28"/>
+        <v>90.516480000000001</v>
+      </c>
+      <c r="G66" s="13">
+        <f t="shared" si="28"/>
+        <v>30.289919999999999</v>
+      </c>
+      <c r="H66" s="13">
+        <f t="shared" si="28"/>
+        <v>109.36320000000001</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B67" s="4">
-        <v>5120</v>
-      </c>
-      <c r="C67" s="4">
-        <v>5120</v>
-      </c>
-      <c r="D67" s="4">
-        <v>5120</v>
-      </c>
-      <c r="E67" s="4">
-        <v>384</v>
-      </c>
-      <c r="F67" s="4">
-        <v>192</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="I67" s="4">
-        <f>E67/32</f>
-        <v>12</v>
-      </c>
-      <c r="J67" s="4">
-        <f>F67/32</f>
-        <v>6</v>
-      </c>
+      <c r="A67" s="1"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B68" s="4">
-        <f>B67/8</f>
-        <v>640</v>
-      </c>
-      <c r="C68" s="4">
-        <f>C67/8</f>
-        <v>640</v>
-      </c>
-      <c r="D68" s="4">
-        <f>D67/8</f>
-        <v>640</v>
-      </c>
-      <c r="E68" s="4">
-        <f>E67/8</f>
-        <v>48</v>
-      </c>
-      <c r="F68" s="4">
-        <f>F67/8</f>
-        <v>24</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="I68" s="4">
-        <v>32</v>
-      </c>
-      <c r="J68" s="4">
-        <v>32</v>
+        <v>54</v>
+      </c>
+      <c r="B68" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G68" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B69" s="4">
-        <v>1215</v>
-      </c>
-      <c r="C69" s="4">
-        <v>2619</v>
-      </c>
-      <c r="D69" s="4">
-        <v>1593</v>
-      </c>
-      <c r="E69" s="4">
-        <v>9001</v>
-      </c>
-      <c r="F69" s="4">
-        <v>6251</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="I69" s="4">
-        <v>8</v>
-      </c>
-      <c r="J69" s="4">
-        <v>8</v>
+        <v>55</v>
+      </c>
+      <c r="B69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B70" s="5">
-        <f>2*B68*B69/1000</f>
-        <v>1555.2</v>
-      </c>
-      <c r="C70" s="12">
-        <f>2*C68*C69/1000</f>
-        <v>3352.32</v>
-      </c>
-      <c r="D70" s="12">
-        <f>2*D68*D69/1000</f>
-        <v>2039.04</v>
-      </c>
-      <c r="E70" s="12">
-        <f>2*E68*E69/1000</f>
-        <v>864.096</v>
-      </c>
-      <c r="F70" s="12">
-        <f>2*F68*F69/1000</f>
-        <v>300.048</v>
-      </c>
-      <c r="G70" s="48"/>
-      <c r="H70" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="I70" s="4">
-        <v>1125</v>
-      </c>
-      <c r="J70" s="4">
-        <v>781.25</v>
+        <v>56</v>
+      </c>
+      <c r="B70" s="4">
+        <v>7</v>
+      </c>
+      <c r="C70" s="4">
+        <v>7</v>
+      </c>
+      <c r="D70" s="4">
+        <v>7</v>
+      </c>
+      <c r="E70" s="4">
+        <v>7</v>
+      </c>
+      <c r="F70" s="4">
+        <v>7</v>
+      </c>
+      <c r="G70" s="4">
+        <v>7</v>
+      </c>
+      <c r="H70" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B71" s="5">
-        <f>B70/1024</f>
-        <v>1.51875</v>
-      </c>
-      <c r="C71" s="5">
-        <f>C70/1024</f>
-        <v>3.2737500000000002</v>
-      </c>
-      <c r="D71" s="5">
-        <f>D70/1024</f>
-        <v>1.99125</v>
-      </c>
-      <c r="E71" s="5">
-        <f>E70/1024</f>
-        <v>0.84384375</v>
-      </c>
-      <c r="F71" s="5">
-        <f>F70/1024</f>
-        <v>0.293015625</v>
-      </c>
-      <c r="G71" s="49"/>
-      <c r="H71" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="I71" s="4">
-        <f>I70*I69*I68/8/1000</f>
-        <v>36</v>
-      </c>
-      <c r="J71" s="4">
-        <f>J70*J69*J68/8/1000</f>
-        <v>25</v>
-      </c>
+      <c r="A71" s="1"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B72" s="4">
-        <v>40</v>
-      </c>
-      <c r="C72" s="4">
-        <v>80</v>
-      </c>
-      <c r="D72" s="4">
-        <v>80</v>
-      </c>
-      <c r="E72" s="4">
-        <v>48</v>
-      </c>
-      <c r="F72" s="4">
-        <v>24</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="I72" s="4">
-        <f>I67*I71</f>
-        <v>432</v>
-      </c>
-      <c r="J72" s="4">
-        <f>J67*J71</f>
-        <v>150</v>
-      </c>
+      <c r="A72" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>438</v>
+        <v>95</v>
       </c>
       <c r="B73" s="4">
-        <v>5</v>
+        <v>5120</v>
       </c>
       <c r="C73" s="4">
-        <v>5</v>
+        <v>5120</v>
       </c>
       <c r="D73" s="4">
-        <v>5</v>
+        <v>5120</v>
       </c>
       <c r="E73" s="4">
-        <v>12</v>
+        <v>6144</v>
       </c>
       <c r="F73" s="4">
-        <v>6</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="I73" s="2">
-        <f>I70*I69</f>
-        <v>9000</v>
-      </c>
-      <c r="J73" s="2">
-        <f>J70*J69</f>
-        <v>6250</v>
-      </c>
+        <v>3072</v>
+      </c>
+      <c r="G73" s="4">
+        <f>32*8*6</f>
+        <v>1536</v>
+      </c>
+      <c r="H73" s="4">
+        <v>8192</v>
+      </c>
+      <c r="I73" s="2"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="1"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="H74" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I74" s="2">
-        <v>48</v>
-      </c>
-      <c r="J74" s="2">
-        <v>24</v>
-      </c>
+      <c r="A74" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" s="4">
+        <f t="shared" ref="B74:G74" si="29">B73/8</f>
+        <v>640</v>
+      </c>
+      <c r="C74" s="4">
+        <f t="shared" si="29"/>
+        <v>640</v>
+      </c>
+      <c r="D74" s="4">
+        <f t="shared" si="29"/>
+        <v>640</v>
+      </c>
+      <c r="E74" s="4">
+        <f t="shared" si="29"/>
+        <v>768</v>
+      </c>
+      <c r="F74" s="4">
+        <f t="shared" si="29"/>
+        <v>384</v>
+      </c>
+      <c r="G74" s="4">
+        <f t="shared" si="29"/>
+        <v>192</v>
+      </c>
+      <c r="H74" s="4">
+        <f>H73/8</f>
+        <v>1024</v>
+      </c>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>36</v>
+      <c r="A75" s="45" t="s">
+        <v>96</v>
       </c>
       <c r="B75" s="4">
-        <v>40</v>
+        <v>1215</v>
       </c>
       <c r="C75" s="4">
-        <v>50</v>
+        <v>2619</v>
       </c>
       <c r="D75" s="4">
-        <v>50</v>
+        <v>1593</v>
       </c>
       <c r="E75" s="4">
-        <v>96</v>
+        <v>3200</v>
       </c>
       <c r="F75" s="4">
-        <v>48</v>
-      </c>
-      <c r="H75" s="50" t="s">
-        <v>440</v>
-      </c>
-      <c r="I75" s="23">
-        <f>I74/I67</f>
-        <v>4</v>
-      </c>
-      <c r="J75" s="23">
-        <f>J74/J67</f>
-        <v>4</v>
-      </c>
+        <v>1125</v>
+      </c>
+      <c r="G75" s="4">
+        <v>781.25</v>
+      </c>
+      <c r="H75" s="4">
+        <v>4000</v>
+      </c>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B76" s="4">
-        <v>164</v>
-      </c>
-      <c r="C76" s="4">
-        <v>228</v>
-      </c>
-      <c r="D76" s="4">
-        <v>228</v>
-      </c>
-      <c r="E76" s="4">
-        <v>128</v>
-      </c>
-      <c r="F76" s="4">
-        <v>128</v>
-      </c>
+      <c r="A76" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" s="5">
+        <f t="shared" ref="B76:G76" si="30">2*B74*B75/1000</f>
+        <v>1555.2</v>
+      </c>
+      <c r="C76" s="12">
+        <f t="shared" si="30"/>
+        <v>3352.32</v>
+      </c>
+      <c r="D76" s="12">
+        <f t="shared" si="30"/>
+        <v>2039.04</v>
+      </c>
+      <c r="E76" s="12">
+        <f t="shared" si="30"/>
+        <v>4915.2</v>
+      </c>
+      <c r="F76" s="12">
+        <f>2*F74*F75/1000</f>
+        <v>864</v>
+      </c>
+      <c r="G76" s="12">
+        <f t="shared" si="30"/>
+        <v>300</v>
+      </c>
+      <c r="H76" s="12">
+        <f>2*H74*H75/1000</f>
+        <v>8192</v>
+      </c>
+      <c r="I76" s="12"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B77" s="12">
-        <f>B76*B18/1024</f>
-        <v>17.296875</v>
-      </c>
-      <c r="C77" s="12">
-        <f>C76*C18/1024</f>
-        <v>29.390625</v>
-      </c>
-      <c r="D77" s="12">
-        <f>D76*D18/1024</f>
-        <v>25.3828125</v>
-      </c>
-      <c r="E77" s="12">
-        <f>E76*E18/1024</f>
-        <v>17.75</v>
-      </c>
-      <c r="F77" s="12">
-        <f>F76*F18/1024</f>
-        <v>7.25</v>
-      </c>
-      <c r="G77" s="48"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J77" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K77" s="4" t="s">
-        <v>95</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B77" s="5">
+        <f t="shared" ref="B77:G77" si="31">B76/1024</f>
+        <v>1.51875</v>
+      </c>
+      <c r="C77" s="5">
+        <f t="shared" si="31"/>
+        <v>3.2737500000000002</v>
+      </c>
+      <c r="D77" s="5">
+        <f t="shared" si="31"/>
+        <v>1.99125</v>
+      </c>
+      <c r="E77" s="5">
+        <f t="shared" si="31"/>
+        <v>4.8</v>
+      </c>
+      <c r="F77" s="5">
+        <f>F76/1024</f>
+        <v>0.84375</v>
+      </c>
+      <c r="G77" s="5">
+        <f t="shared" si="31"/>
+        <v>0.29296875</v>
+      </c>
+      <c r="H77" s="5">
+        <f>H76/1024</f>
+        <v>8</v>
+      </c>
+      <c r="I77" s="5"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>102</v>
+      <c r="A78" s="45" t="s">
+        <v>98</v>
       </c>
       <c r="B78" s="4">
-        <v>256</v>
+        <v>40</v>
       </c>
       <c r="C78" s="4">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="D78" s="4">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="E78" s="4">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="F78" s="4">
-        <v>64</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="I78" s="4">
-        <v>128</v>
-      </c>
-      <c r="J78" s="4">
-        <v>64</v>
-      </c>
-      <c r="K78" s="4">
-        <v>64</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G78" s="4">
+        <v>24</v>
+      </c>
+      <c r="H78" s="4">
+        <v>192</v>
+      </c>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>103</v>
+      <c r="A79" s="45" t="s">
+        <v>427</v>
       </c>
       <c r="B79" s="4">
-        <f>B18*B78</f>
-        <v>27648</v>
+        <v>5</v>
       </c>
       <c r="C79" s="4">
-        <f>C18*C78</f>
-        <v>33792</v>
+        <v>5</v>
       </c>
       <c r="D79" s="4">
-        <f>D18*D78</f>
-        <v>29184</v>
+        <v>5</v>
       </c>
       <c r="E79" s="4">
-        <f>E18*E78</f>
-        <v>9088</v>
+        <v>6</v>
       </c>
       <c r="F79" s="4">
-        <f>F18*F78</f>
-        <v>3712</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="I79" s="4">
+        <v>12</v>
+      </c>
+      <c r="G79" s="4">
+        <v>6</v>
+      </c>
+      <c r="H79" s="4">
         <v>8</v>
       </c>
-      <c r="J79" s="4">
-        <v>16</v>
-      </c>
-      <c r="K79" s="4">
-        <v>16</v>
-      </c>
+      <c r="I79" s="4"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>104</v>
+        <v>425</v>
       </c>
       <c r="B80" s="4">
-        <f>B79/1024</f>
-        <v>27</v>
+        <f>B78/B79</f>
+        <v>8</v>
       </c>
       <c r="C80" s="4">
-        <f>C79/1024</f>
-        <v>33</v>
+        <f t="shared" ref="C80:G80" si="32">C78/C79</f>
+        <v>16</v>
       </c>
       <c r="D80" s="4">
-        <f>D79/1024</f>
-        <v>28.5</v>
+        <f t="shared" si="32"/>
+        <v>16</v>
       </c>
       <c r="E80" s="4">
-        <f>E79/1024</f>
-        <v>8.875</v>
+        <f t="shared" si="32"/>
+        <v>24</v>
       </c>
       <c r="F80" s="4">
-        <f>F79/1024</f>
-        <v>3.625</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="I80" s="4">
-        <v>1215</v>
-      </c>
-      <c r="J80" s="4">
-        <v>2619</v>
-      </c>
-      <c r="K80" s="4">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="32"/>
+        <v>4</v>
+      </c>
+      <c r="G80" s="4">
+        <f t="shared" si="32"/>
+        <v>4</v>
+      </c>
+      <c r="H80" s="12">
+        <f>H78/H79</f>
+        <v>24</v>
+      </c>
+      <c r="I80" s="4"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
-      <c r="H81" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="I81" s="4">
-        <f>I78/8*I79*I80/1000*2</f>
-        <v>311.04000000000002</v>
-      </c>
-      <c r="J81" s="4">
-        <f t="shared" ref="J81:K81" si="0">J78/8*J79*J80/1000*2</f>
-        <v>670.46400000000006</v>
-      </c>
-      <c r="K81" s="4">
-        <f t="shared" si="0"/>
-        <v>407.80799999999999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="44"/>
+      <c r="K81" s="23"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="B82" s="4">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C82" s="4">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D82" s="4">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E82" s="4">
         <v>50</v>
       </c>
       <c r="F82" s="4">
-        <v>10</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="I82" s="4">
-        <f>5120/I78/I79</f>
-        <v>5</v>
-      </c>
-      <c r="J82" s="4">
-        <f>5120/J78/J79</f>
-        <v>5</v>
-      </c>
-      <c r="K82" s="4">
-        <f>5120/K78/K79</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="1"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="H83" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="I83" s="4">
-        <f>I81*I82</f>
-        <v>1555.2</v>
-      </c>
-      <c r="J83" s="4">
-        <f t="shared" ref="J83:K83" si="1">J81*J82</f>
-        <v>3352.32</v>
-      </c>
-      <c r="K83" s="4">
-        <f t="shared" si="1"/>
-        <v>2039.04</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="G82" s="4">
+        <v>48</v>
+      </c>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83" s="4">
+        <v>164</v>
+      </c>
+      <c r="C83" s="4">
+        <v>228</v>
+      </c>
+      <c r="D83" s="4">
+        <v>228</v>
+      </c>
+      <c r="E83" s="4">
+        <v>228</v>
+      </c>
+      <c r="F83" s="4">
+        <v>128</v>
+      </c>
+      <c r="G83" s="4">
+        <v>128</v>
+      </c>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B84" s="4">
-        <v>5</v>
-      </c>
-      <c r="C84" s="4">
-        <v>5</v>
-      </c>
-      <c r="D84" s="4">
-        <v>5</v>
-      </c>
-      <c r="E84" s="4">
-        <v>4</v>
-      </c>
-      <c r="F84" s="4">
-        <v>2</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I84" s="4">
-        <v>40</v>
-      </c>
-      <c r="J84" s="4">
-        <v>80</v>
-      </c>
-      <c r="K84" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="B84" s="12">
+        <f t="shared" ref="B84:G84" si="33">B83*B18/1024</f>
+        <v>17.296875</v>
+      </c>
+      <c r="C84" s="12">
+        <f t="shared" si="33"/>
+        <v>29.390625</v>
+      </c>
+      <c r="D84" s="12">
+        <f t="shared" si="33"/>
+        <v>25.3828125</v>
+      </c>
+      <c r="E84" s="12">
+        <f t="shared" si="33"/>
+        <v>29.390625</v>
+      </c>
+      <c r="F84" s="12">
+        <f t="shared" si="33"/>
+        <v>17.75</v>
+      </c>
+      <c r="G84" s="12">
+        <f t="shared" si="33"/>
+        <v>7.25</v>
+      </c>
+      <c r="H84" s="12"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>348</v>
+        <v>101</v>
       </c>
       <c r="B85" s="4">
-        <f>B67/B84</f>
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="C85" s="4">
-        <f t="shared" ref="C85:F85" si="2">C67/C84</f>
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="D85" s="4">
-        <f t="shared" si="2"/>
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="E85" s="4">
-        <f t="shared" si="2"/>
-        <v>96</v>
+        <v>256</v>
       </c>
       <c r="F85" s="4">
-        <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="H85" s="50" t="s">
-        <v>440</v>
-      </c>
-      <c r="I85" s="23">
-        <f>I84/I82</f>
-        <v>8</v>
-      </c>
-      <c r="J85" s="23">
-        <f t="shared" ref="J85:K85" si="3">J84/J82</f>
-        <v>16</v>
-      </c>
-      <c r="K85" s="23">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="G85" s="4">
+        <v>64</v>
+      </c>
+      <c r="H85" s="4"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>349</v>
+        <v>102</v>
       </c>
       <c r="B86" s="4">
-        <f>B85/8</f>
-        <v>128</v>
+        <f t="shared" ref="B86:G86" si="34">B18*B85</f>
+        <v>27648</v>
       </c>
       <c r="C86" s="4">
-        <f t="shared" ref="C86:F86" si="4">C85/8</f>
-        <v>128</v>
+        <f t="shared" si="34"/>
+        <v>33792</v>
       </c>
       <c r="D86" s="4">
-        <f t="shared" si="4"/>
-        <v>128</v>
+        <f t="shared" si="34"/>
+        <v>29184</v>
       </c>
       <c r="E86" s="4">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f t="shared" si="34"/>
+        <v>33792</v>
       </c>
       <c r="F86" s="4">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="H86" s="2"/>
+        <f t="shared" si="34"/>
+        <v>9088</v>
+      </c>
+      <c r="G86" s="4">
+        <f t="shared" si="34"/>
+        <v>3712</v>
+      </c>
+      <c r="H86" s="4"/>
       <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B87" s="15">
-        <f>2*B86*B69/1000</f>
-        <v>311.04000000000002</v>
-      </c>
-      <c r="C87" s="15">
-        <f t="shared" ref="C87:F87" si="5">2*C86*C69/1000</f>
-        <v>670.46400000000006</v>
-      </c>
-      <c r="D87" s="15">
-        <f t="shared" si="5"/>
-        <v>407.80799999999999</v>
-      </c>
-      <c r="E87" s="15">
-        <f t="shared" si="5"/>
-        <v>216.024</v>
-      </c>
-      <c r="F87" s="15">
-        <f t="shared" si="5"/>
-        <v>150.024</v>
-      </c>
-      <c r="G87" s="26"/>
-      <c r="H87" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="B87" s="4">
+        <f t="shared" ref="B87:G87" si="35">B86/1024</f>
+        <v>27</v>
+      </c>
+      <c r="C87" s="4">
+        <f t="shared" si="35"/>
+        <v>33</v>
+      </c>
+      <c r="D87" s="4">
+        <f t="shared" si="35"/>
+        <v>28.5</v>
+      </c>
+      <c r="E87" s="4">
+        <f t="shared" si="35"/>
+        <v>33</v>
+      </c>
+      <c r="F87" s="4">
+        <f t="shared" si="35"/>
+        <v>8.875</v>
+      </c>
+      <c r="G87" s="4">
+        <f t="shared" si="35"/>
+        <v>3.625</v>
+      </c>
+      <c r="H87" s="4"/>
       <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B88" s="15">
-        <f>(B84*B87)-B70</f>
-        <v>0</v>
-      </c>
-      <c r="C88" s="15">
-        <f t="shared" ref="C88:F88" si="6">(C84*C87)-C70</f>
-        <v>0</v>
-      </c>
-      <c r="D88" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E88" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F88" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G88" s="26"/>
-      <c r="H88" s="2"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
       <c r="I88" s="2"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>352</v>
+      <c r="L88" s="4"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" s="45" t="s">
+        <v>106</v>
       </c>
       <c r="B89" s="4">
-        <f>B72/B84</f>
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C89" s="4">
-        <f t="shared" ref="C89:F89" si="7">C72/C84</f>
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="D89" s="4">
-        <f t="shared" si="7"/>
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="E89" s="4">
-        <f t="shared" si="7"/>
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="F89" s="4">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="H89" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="G89" s="4">
+        <v>10</v>
+      </c>
+      <c r="H89" s="4">
+        <v>200</v>
+      </c>
       <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
-      <c r="H90" s="2"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
       <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="44"/>
+      <c r="K92" s="23"/>
+      <c r="L92" s="23"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="2"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" s="1"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" s="1"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" s="1"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" s="1"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101" s="1"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A102" s="1"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A103" s="1"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A104" s="2"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4572,8 +5015,8 @@
   <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4587,13 +5030,13 @@
         <v>73</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4601,13 +5044,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4634,7 +5077,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -4680,7 +5123,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B10" s="4">
         <v>1700</v>
@@ -4694,7 +5137,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B11" s="4">
         <v>1700</v>
@@ -4708,7 +5151,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B12" s="4">
         <v>2000</v>
@@ -4725,7 +5168,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
@@ -4739,7 +5182,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" s="4">
         <v>32</v>
@@ -4753,7 +5196,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B16" s="4">
         <f>B15*B14</f>
@@ -4770,7 +5213,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B17" s="4">
         <v>4</v>
@@ -4784,7 +5227,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B18" s="4">
         <v>4</v>
@@ -4798,7 +5241,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B19" s="4">
         <f>B16*B17</f>
@@ -4815,7 +5258,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B20" s="4">
         <f>B18*B16</f>
@@ -4844,7 +5287,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B23" s="4">
         <v>128</v>
@@ -4856,19 +5299,19 @@
         <v>128</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G23" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>241</v>
       </c>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B24" s="4">
         <v>512</v>
@@ -4880,7 +5323,7 @@
         <v>512</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G24" s="4">
         <v>8</v>
@@ -4891,7 +5334,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B25" s="4">
         <v>512</v>
@@ -4903,7 +5346,7 @@
         <v>512</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G25" s="4">
         <v>16</v>
@@ -4914,7 +5357,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B26" s="4">
         <v>512</v>
@@ -4926,10 +5369,10 @@
         <v>512</v>
       </c>
       <c r="F26" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -4937,7 +5380,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B27" s="4">
         <v>2048</v>
@@ -4949,24 +5392,24 @@
         <v>2048</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="H27" s="4">
         <v>128</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B28" s="4">
         <v>2048</v>
@@ -4978,19 +5421,19 @@
         <v>2048</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H28" s="4">
         <v>16</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -5005,10 +5448,10 @@
         <v>2048</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -5017,7 +5460,7 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -5026,7 +5469,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B31" s="4">
         <v>0</v>
@@ -5038,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G31" s="4">
         <v>4</v>
@@ -5049,7 +5492,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B32" s="4">
         <v>32</v>
@@ -5061,7 +5504,7 @@
         <v>32</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G32" s="4">
         <v>8</v>
@@ -5076,10 +5519,10 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="F33" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -5091,24 +5534,24 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H34" s="4">
         <v>32</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B35" s="4">
         <f t="shared" ref="B35:D40" si="2">B23*B$19</f>
@@ -5123,24 +5566,24 @@
         <v>32768</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H35" s="4">
         <v>1</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B36" s="4">
         <f t="shared" si="2"/>
@@ -5160,15 +5603,15 @@
         <v>32</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B37" s="4">
         <f t="shared" si="2"/>
@@ -5185,7 +5628,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B38" s="4">
         <f t="shared" si="2"/>
@@ -5202,7 +5645,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B39" s="4">
         <f t="shared" si="2"/>
@@ -5219,7 +5662,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B40" s="4">
         <f t="shared" si="2"/>
@@ -5248,7 +5691,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B43" s="4">
         <f t="shared" ref="B43:D44" si="3">B31*B$20</f>
@@ -5265,7 +5708,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B44" s="4">
         <f t="shared" si="3"/>
@@ -5294,7 +5737,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B47" s="12">
         <f>B35*2*B$10/1000000</f>
@@ -5311,7 +5754,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B48" s="12">
         <f t="shared" ref="B48:D48" si="5">B36*2*B$10/1000000</f>
@@ -5328,7 +5771,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B49" s="12">
         <f t="shared" ref="B49:D49" si="6">B37*2*B$10/1000000</f>
@@ -5345,7 +5788,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B50" s="12">
         <f t="shared" ref="B50:D50" si="7">B38*2*B$10/1000000</f>
@@ -5362,7 +5805,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B51" s="12">
         <f t="shared" ref="B51:D51" si="8">B39*2*B$10/1000000</f>
@@ -5379,7 +5822,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B52" s="25">
         <f t="shared" ref="B52:D52" si="9">B40*2*B$10/1000000</f>
@@ -5419,7 +5862,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B55" s="6">
         <f>B43*2*B$10/1000000</f>
@@ -5436,7 +5879,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B56" s="6">
         <f t="shared" ref="B56:D56" si="11">B44*2*B$10/1000000</f>
@@ -5516,18 +5959,18 @@
         <v>2</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>194</v>
-      </c>
       <c r="D63" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B64" s="4">
         <v>4</v>
@@ -5541,7 +5984,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B65" s="4">
         <v>4</v>
@@ -5555,7 +5998,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B66" s="4">
         <f>B64*B65</f>
@@ -5572,7 +6015,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B67" s="4">
         <v>320</v>
@@ -5586,7 +6029,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B68" s="11">
         <f>B64*B67</f>
@@ -5603,7 +6046,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B69" s="4">
         <f>B68/1024</f>
@@ -5626,7 +6069,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B71" s="4">
         <v>4</v>
@@ -5640,7 +6083,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B72" s="4">
         <f>B71*B16</f>
@@ -5687,7 +6130,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B78" s="4">
         <v>50</v>
@@ -5816,42 +6259,42 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="G2" s="4"/>
     </row>
@@ -5862,78 +6305,78 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -5942,51 +6385,51 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B10" s="4">
         <v>0.8</v>
@@ -5999,93 +6442,93 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>279</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>283</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>288</v>
       </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -6105,22 +6548,22 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -6130,10 +6573,10 @@
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -6144,7 +6587,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -6155,17 +6598,17 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>298</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -6175,26 +6618,26 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>301</v>
-      </c>
       <c r="F23" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -6205,10 +6648,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -6218,15 +6661,15 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -6241,7 +6684,7 @@
   <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:K48"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6261,140 +6704,140 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B3" t="s">
         <v>310</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>311</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>312</v>
-      </c>
-      <c r="E3" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B5" t="s">
         <v>315</v>
       </c>
-      <c r="B5" t="s">
-        <v>316</v>
-      </c>
       <c r="C5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B6" t="s">
         <v>317</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>318</v>
       </c>
-      <c r="C6" t="s">
-        <v>319</v>
-      </c>
       <c r="E6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B7" t="s">
         <v>320</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>321</v>
       </c>
-      <c r="C7" t="s">
-        <v>322</v>
-      </c>
       <c r="E7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B8" t="s">
         <v>323</v>
       </c>
-      <c r="B8" t="s">
-        <v>324</v>
-      </c>
       <c r="C8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B9" t="s">
         <v>325</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>326</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>327</v>
-      </c>
-      <c r="E9" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>328</v>
+      </c>
+      <c r="B10" t="s">
         <v>329</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>330</v>
       </c>
-      <c r="C10" t="s">
-        <v>331</v>
-      </c>
       <c r="E10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B11" t="s">
         <v>332</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>333</v>
       </c>
-      <c r="C11" t="s">
-        <v>334</v>
-      </c>
       <c r="E11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B13">
         <v>256</v>
@@ -6408,7 +6851,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B14">
         <f>B13/8</f>
@@ -6425,7 +6868,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B15">
         <v>32</v>
@@ -6439,7 +6882,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B16">
         <f>B13*B15</f>
@@ -6456,7 +6899,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B17">
         <f>B16/8</f>
@@ -6473,7 +6916,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B18">
         <v>48</v>
@@ -6481,7 +6924,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B19">
         <f>B13*B18</f>
@@ -6490,7 +6933,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B20">
         <f>B19/8</f>
@@ -6499,7 +6942,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -6507,7 +6950,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B22">
         <f>B13*B21</f>
@@ -6516,7 +6959,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B23">
         <f>B22/8</f>
@@ -6525,15 +6968,15 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B30">
         <v>32</v>
@@ -6544,7 +6987,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -6555,7 +6998,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B32">
         <v>1.35</v>
@@ -6566,7 +7009,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B33">
         <v>6.5</v>
@@ -6577,7 +7020,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B34">
         <v>72</v>
@@ -6588,7 +7031,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B49">
         <v>2009</v>
@@ -6596,7 +7039,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B50">
         <v>2011</v>
@@ -6604,7 +7047,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B51">
         <v>2013</v>
@@ -6612,7 +7055,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B52">
         <v>2014</v>
@@ -6620,7 +7063,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B53">
         <v>2017</v>
@@ -6628,7 +7071,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B54">
         <v>2020</v>
@@ -6636,59 +7079,59 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B59" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B60" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B61" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4">
@@ -6698,12 +7141,12 @@
         <v>184</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4">
@@ -6713,12 +7156,12 @@
         <v>240</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4">
@@ -6728,21 +7171,21 @@
         <v>240</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4">
@@ -6752,21 +7195,21 @@
         <v>288</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -6774,21 +7217,21 @@
         <v>200</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -6796,21 +7239,21 @@
         <v>200</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -6818,133 +7261,133 @@
         <v>204</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="I72" s="4"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -6976,69 +7419,69 @@
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="51" t="s">
-        <v>413</v>
-      </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51" t="s">
-        <v>418</v>
-      </c>
-      <c r="G1" s="51"/>
+      <c r="D1" s="46" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46" t="s">
+        <v>410</v>
+      </c>
+      <c r="G1" s="46"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
-      <c r="L1" s="51" t="s">
-        <v>420</v>
-      </c>
-      <c r="M1" s="51"/>
+      <c r="L1" s="46" t="s">
+        <v>412</v>
+      </c>
+      <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B3" s="4">
         <v>2003</v>
@@ -7072,7 +7515,7 @@
         <v>6.4</v>
       </c>
       <c r="K3" s="41" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="L3" s="4">
         <v>0.5</v>
@@ -7083,7 +7526,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B4" s="4">
         <v>2007</v>
@@ -7117,7 +7560,7 @@
         <v>17.071999999999999</v>
       </c>
       <c r="K4" s="41" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="L4" s="4">
         <v>2</v>
@@ -7128,7 +7571,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B5" s="4">
         <v>2014</v>
@@ -7162,7 +7605,7 @@
         <v>256</v>
       </c>
       <c r="K5" s="41" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="L5" s="4">
         <v>4</v>
@@ -7173,7 +7616,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B6" s="4">
         <v>2020</v>
@@ -7207,7 +7650,7 @@
         <v>51.2</v>
       </c>
       <c r="K6" s="41" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="L6" s="4">
         <v>8</v>
@@ -7218,7 +7661,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B7" s="4">
         <v>2003</v>
@@ -7255,7 +7698,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B8" s="4">
         <v>2006</v>
@@ -7292,7 +7735,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B9" s="4">
         <v>2008</v>
@@ -7329,7 +7772,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B10" s="4">
         <v>2016</v>
@@ -7366,7 +7809,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B11" s="4">
         <v>2018</v>
@@ -7403,7 +7846,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B12" s="4">
         <v>2020</v>
@@ -7440,7 +7883,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B13" s="4">
         <v>2020</v>
@@ -7472,14 +7915,14 @@
         <v>176</v>
       </c>
       <c r="K13" s="42" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B14" s="4">
         <v>2023</v>
@@ -7516,7 +7959,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B16">
         <v>2006</v>
@@ -7550,7 +7993,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B17">
         <v>2006</v>
@@ -7579,7 +8022,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B18">
         <v>2009</v>
@@ -7608,7 +8051,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B19">
         <v>2009</v>
@@ -7641,7 +8084,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B20">
         <v>2012</v>
@@ -7674,7 +8117,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B21">
         <v>2012</v>
@@ -7703,7 +8146,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B22">
         <v>2014</v>
@@ -7732,7 +8175,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B23">
         <v>2017</v>
@@ -7761,7 +8204,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B24">
         <v>2019</v>
@@ -7790,7 +8233,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B25">
         <v>2021</v>
@@ -7847,37 +8290,37 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>209</v>
-      </c>
       <c r="C1" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E1" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="G1" s="34" t="s">
         <v>218</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>219</v>
       </c>
       <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D2" s="40">
         <v>2048</v>
@@ -7895,13 +8338,13 @@
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>203</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>204</v>
       </c>
       <c r="D3" s="32">
         <v>4096</v>
@@ -7919,13 +8362,13 @@
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D4" s="39">
         <v>512</v>
@@ -7943,13 +8386,13 @@
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D5" s="32">
         <v>512</v>
@@ -7967,13 +8410,13 @@
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D6" s="32">
         <v>512</v>
@@ -7991,13 +8434,13 @@
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B7" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>210</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>211</v>
       </c>
       <c r="D7" s="32">
         <v>128</v>
@@ -8015,13 +8458,13 @@
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D8" s="32">
         <v>32</v>
@@ -8039,13 +8482,13 @@
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D9" s="40">
         <v>2048</v>
@@ -8063,13 +8506,13 @@
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D10" s="32">
         <v>128</v>
@@ -8087,13 +8530,13 @@
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D11" s="30">
         <v>64</v>
@@ -8111,13 +8554,13 @@
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D12" s="30">
         <v>32</v>
@@ -8135,13 +8578,13 @@
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D13" s="30">
         <v>16</v>
@@ -8159,13 +8602,13 @@
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D14" s="30">
         <v>128</v>
@@ -8183,13 +8626,13 @@
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B15" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>213</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>214</v>
       </c>
       <c r="D15" s="30">
         <v>32</v>
@@ -8214,7 +8657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3438FEF4-9AA2-2F44-AE16-02DECD3D2C8A}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -8238,7 +8681,7 @@
         <v>43</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -8274,19 +8717,19 @@
         <v>52</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -8477,11 +8920,11 @@
         <v>41</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -9301,8 +9744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9903CFE9-586B-2A42-98DB-BCF0E6F44747}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9335,105 +9778,105 @@
   <sheetData>
     <row r="1" spans="1:30" s="19" customFormat="1" ht="126" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="O1" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="N1" s="20" t="s">
+      <c r="P1" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="O1" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="T1" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="U1" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="V1" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="W1" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="W1" s="19" t="s">
-        <v>153</v>
-      </c>
       <c r="X1" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Y1" s="19" t="s">
         <v>46</v>
       </c>
       <c r="Z1" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA1" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB1" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="AA1" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AC1" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AD1" s="19" t="s">
         <v>159</v>
-      </c>
-      <c r="AD1" s="19" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D2">
         <v>6912</v>
@@ -9445,13 +9888,13 @@
         <v>6912</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H2">
         <v>1410</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J2">
         <v>2.4</v>
@@ -9479,7 +9922,7 @@
         <v>624</v>
       </c>
       <c r="R2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S2">
         <v>312</v>
@@ -9520,13 +9963,13 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3">
         <v>6912</v>
@@ -9538,13 +9981,13 @@
         <v>6912</v>
       </c>
       <c r="G3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H3">
         <v>1410</v>
       </c>
       <c r="I3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J3">
         <v>3.2</v>
@@ -9572,7 +10015,7 @@
         <v>624</v>
       </c>
       <c r="R3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S3">
         <v>312</v>
@@ -9613,13 +10056,13 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D4">
         <v>16896</v>
@@ -9631,13 +10074,13 @@
         <v>16896</v>
       </c>
       <c r="G4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H4">
         <v>1980</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J4">
         <v>5.2</v>
@@ -9666,7 +10109,7 @@
         <v>1980</v>
       </c>
       <c r="R4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S4">
         <v>990</v>
@@ -9681,7 +10124,7 @@
         <v>2022</v>
       </c>
       <c r="W4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X4">
         <v>814</v>
@@ -9707,13 +10150,13 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5">
         <v>16896</v>
@@ -9725,13 +10168,13 @@
         <v>16896</v>
       </c>
       <c r="G5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H5">
         <v>1980</v>
       </c>
       <c r="I5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J5">
         <v>6.3</v>
@@ -9759,7 +10202,7 @@
         <v>1980</v>
       </c>
       <c r="R5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S5">
         <v>990</v>
@@ -9774,7 +10217,7 @@
         <v>2023</v>
       </c>
       <c r="W5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X5">
         <v>814</v>
@@ -9800,31 +10243,31 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" t="s">
         <v>132</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>133</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>134</v>
       </c>
-      <c r="D6" t="s">
-        <v>135</v>
-      </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J6">
         <v>8</v>
@@ -9843,7 +10286,7 @@
         <v>192</v>
       </c>
       <c r="O6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q6">
         <v>3500</v>
@@ -9861,13 +10304,13 @@
         <v>989</v>
       </c>
       <c r="V6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y6">
         <v>700</v>
@@ -9877,45 +10320,45 @@
         <v>1843.2</v>
       </c>
       <c r="AA6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB6">
         <v>30</v>
       </c>
       <c r="AC6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AD6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" t="s">
         <v>133</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>134</v>
       </c>
-      <c r="D7" t="s">
-        <v>135</v>
-      </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J7">
         <v>8</v>
@@ -9934,7 +10377,7 @@
         <v>192</v>
       </c>
       <c r="O7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q7">
         <v>4500</v>
@@ -9952,13 +10395,13 @@
         <v>1200</v>
       </c>
       <c r="V7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y7">
         <v>1000</v>
@@ -9967,16 +10410,16 @@
         <v>1843.2</v>
       </c>
       <c r="AA7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB7">
         <v>40</v>
       </c>
       <c r="AC7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AD7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
